--- a/v2/AIID_Technical_Taxonomies_v2.xlsx
+++ b/v2/AIID_Technical_Taxonomies_v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Incident TEMPLATE breakdown" sheetId="1" state="visible" r:id="rId2"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="576">
   <si>
     <t xml:space="preserve">AI Tasks</t>
   </si>
@@ -208,7 +208,7 @@
     <t xml:space="preserve">The complaint alleges Google’s face grouping tool, which automatically identifies your face in photos and videos uploaded to Photos, violates Illinois’ Biometric Information Privacy Act (BIPA).</t>
   </si>
   <si>
-    <t xml:space="preserve">Face Recognition</t>
+    <t xml:space="preserve">Face Detection</t>
   </si>
   <si>
     <t xml:space="preserve">Google “is in direct violation” of this law, the complaint claims, as it allegedly collects and analyzes a person’s facial structure in connection with its face grouping feature “without providing notice, obtaining informed written consent or publishing data retention policies.”</t>
@@ -694,9 +694,6 @@
   </si>
   <si>
     <t xml:space="preserve">The researchers chose Obama for their latest work because there were hours of high-definition video of him available online in the public domain. The research team had a neural net analyze millions of frames of video to determine how elements of Obama's face moved as he talked, such as his lips and teeth and wrinkles around his mouth and chin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Face Detection</t>
   </si>
   <si>
     <t xml:space="preserve">In an artificial neural network, components known as artificial neurons are fed data, and work together to solve a problem such as identifying faces or recognizing speech.</t>
@@ -1891,7 +1888,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m&quot;, &quot;d"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1927,12 +1924,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2079,7 +2070,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2116,15 +2107,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2136,15 +2123,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2156,11 +2143,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2168,11 +2155,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2284,7 +2271,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -2546,7 +2533,7 @@
       <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="23.22"/>
   </cols>
@@ -2895,7 +2882,7 @@
       <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -3256,7 +3243,7 @@
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -3375,7 +3362,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G5" s="5" t="s">
-        <v>207</v>
+        <v>54</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>3</v>
@@ -3387,18 +3374,18 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G6" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="N6" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="O6" s="5" t="n">
         <v>2</v>
@@ -3407,24 +3394,24 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H7" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>149</v>
       </c>
       <c r="L7" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="O7" s="5" t="n">
         <v>2</v>
@@ -3433,12 +3420,12 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N8" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O8" s="5" t="n">
         <v>2</v>
@@ -3447,7 +3434,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3455,7 +3442,7 @@
         <v>137</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O9" s="5" t="n">
         <v>3</v>
@@ -3464,7 +3451,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3475,7 +3462,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3486,7 +3473,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3497,7 +3484,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3508,7 +3495,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3519,7 +3506,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3530,7 +3517,7 @@
         <v>13</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3541,7 +3528,7 @@
         <v>14</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3552,7 +3539,7 @@
         <v>15</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3563,7 +3550,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3668,7 +3655,7 @@
       <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -3750,19 +3737,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3773,13 +3760,13 @@
         <v>3</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3793,30 +3780,30 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G6" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I6" s="5" t="n">
         <v>4</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L6" s="5" t="n">
         <v>2</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3833,13 +3820,13 @@
         <v>1</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3847,7 +3834,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3861,7 +3848,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4014,7 +4001,7 @@
       <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="5" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="5" width="22.81"/>
@@ -4100,30 +4087,30 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="O3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="O3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="7" t="s">
+      <c r="R3" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4134,7 +4121,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O4" s="7" t="n">
         <v>1</v>
@@ -4143,7 +4130,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4154,7 +4141,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4165,7 +4152,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4176,7 +4163,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4187,12 +4174,12 @@
         <v>6</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N9" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O9" s="7" t="n">
         <v>1</v>
@@ -4201,7 +4188,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4209,7 +4196,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4217,7 +4204,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4225,16 +4212,16 @@
         <v>183</v>
       </c>
       <c r="L12" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="N12" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="P12" s="7" t="n">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4242,7 +4229,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4375,7 +4362,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="5" width="32.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="19.88"/>
@@ -4471,21 +4458,21 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="101.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="I3" s="7" t="n">
         <v>10</v>
@@ -4493,47 +4480,47 @@
       <c r="P3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="12" t="s">
-        <v>268</v>
+      <c r="Q3" s="11" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="13" t="s">
-        <v>271</v>
+      <c r="Q4" s="12" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="623.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="13" t="s">
-        <v>275</v>
+      <c r="Q6" s="12" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4541,33 +4528,33 @@
         <v>198</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="39.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K8" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L8" s="7" t="n">
         <v>7</v>
       </c>
       <c r="M8" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="N8" s="13" t="s">
         <v>279</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>280</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="Q8" s="13" t="s">
-        <v>281</v>
+      <c r="Q8" s="12" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4575,40 +4562,40 @@
         <v>93</v>
       </c>
       <c r="L9" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="P9" s="7" t="n">
         <v>7</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I10" s="7" t="n">
         <v>8</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="Q10" s="12" t="s">
-        <v>289</v>
+      <c r="Q10" s="11" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="76.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4617,8 +4604,8 @@
       <c r="P11" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="Q11" s="13" t="s">
-        <v>290</v>
+      <c r="Q11" s="12" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4632,43 +4619,43 @@
         <v>10</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="39.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P13" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="Q13" s="13" t="s">
-        <v>292</v>
+      <c r="Q13" s="12" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="P14" s="7" t="n">
         <v>12</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J15" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="P15" s="7" t="n">
         <v>13</v>
@@ -4676,7 +4663,7 @@
     </row>
     <row r="16" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J16" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L16" s="7" t="n">
         <v>2</v>
@@ -4684,8 +4671,8 @@
       <c r="P16" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="Q16" s="13" t="s">
-        <v>301</v>
+      <c r="Q16" s="12" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4699,27 +4686,27 @@
       <c r="P17" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="Q17" s="13" t="s">
-        <v>302</v>
+      <c r="Q17" s="12" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N18" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P18" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="Q18" s="13" t="s">
-        <v>304</v>
+      <c r="Q18" s="12" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P19" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="Q19" s="14" t="s">
-        <v>305</v>
+      <c r="Q19" s="13" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4812,7 +4799,7 @@
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="5.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="5" width="5.88"/>
@@ -4909,38 +4896,38 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
+      <c r="O3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="J4" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="J4" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="11" t="s">
         <v>311</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>312</v>
       </c>
       <c r="O4" s="4" t="n">
         <v>1</v>
@@ -4949,7 +4936,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="39.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4957,10 +4944,10 @@
         <v>86</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>2</v>
@@ -4968,8 +4955,8 @@
       <c r="P5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" s="13" t="s">
-        <v>316</v>
+      <c r="Q5" s="12" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4977,10 +4964,10 @@
         <v>93</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>317</v>
+        <v>310</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>316</v>
       </c>
       <c r="O6" s="4" t="n">
         <v>2</v>
@@ -4988,8 +4975,8 @@
       <c r="P6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="13" t="s">
-        <v>318</v>
+      <c r="Q6" s="12" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4999,13 +4986,13 @@
       <c r="P7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" s="12" t="s">
-        <v>319</v>
+      <c r="Q7" s="11" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G8" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I8" s="7" t="n">
         <v>6</v>
@@ -5017,12 +5004,12 @@
         <v>6</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G9" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I9" s="7" t="n">
         <v>6</v>
@@ -5033,8 +5020,8 @@
       <c r="P9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="Q9" s="13" t="s">
-        <v>322</v>
+      <c r="Q9" s="12" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5046,7 +5033,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5054,7 +5041,7 @@
         <v>114</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O11" s="4" t="n">
         <v>8</v>
@@ -5062,8 +5049,8 @@
       <c r="P11" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="Q11" s="12" t="s">
-        <v>325</v>
+      <c r="Q11" s="11" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5074,7 +5061,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5084,19 +5071,19 @@
       <c r="P13" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="Q13" s="13" t="s">
-        <v>327</v>
+      <c r="Q13" s="12" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H14" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="M14" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="O14" s="4" t="n">
         <v>12</v>
@@ -5105,7 +5092,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5113,10 +5100,10 @@
         <v>198</v>
       </c>
       <c r="I15" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="M15" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="O15" s="4" t="n">
         <v>13</v>
@@ -5124,19 +5111,19 @@
       <c r="P15" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="Q15" s="13" t="s">
-        <v>334</v>
+      <c r="Q15" s="12" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H16" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="M16" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="O16" s="4" t="n">
         <v>15</v>
@@ -5145,18 +5132,18 @@
         <v>14</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E17" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="M17" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4" t="n">
@@ -5166,10 +5153,10 @@
         <v>15</v>
       </c>
       <c r="Q17" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="R17" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5179,8 +5166,8 @@
       <c r="P18" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="Q18" s="13" t="s">
-        <v>343</v>
+      <c r="Q18" s="12" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5191,7 +5178,7 @@
         <v>17</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5202,7 +5189,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5213,7 +5200,7 @@
         <v>19</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5224,7 +5211,7 @@
         <v>20</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5235,7 +5222,7 @@
         <v>21</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -5268,7 +5255,7 @@
       <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="5" width="32.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="19.88"/>
@@ -5362,10 +5349,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="39.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="B3" s="20"/>
+      <c r="A3" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3" s="19"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4" t="n">
@@ -5374,16 +5361,16 @@
       <c r="P3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="13" t="s">
-        <v>350</v>
+      <c r="Q3" s="12" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>352</v>
       </c>
       <c r="O4" s="4" t="n">
         <v>1</v>
@@ -5392,7 +5379,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5403,13 +5390,13 @@
         <v>3</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M6" s="4"/>
       <c r="N6" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O6" s="4" t="n">
         <v>1</v>
@@ -5417,8 +5404,8 @@
       <c r="P6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="13" t="s">
-        <v>356</v>
+      <c r="Q6" s="12" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5429,7 +5416,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5440,7 +5427,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5448,7 +5435,7 @@
         <v>93</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O9" s="4" t="n">
         <v>1</v>
@@ -5456,8 +5443,8 @@
       <c r="P9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="Q9" s="13" t="s">
-        <v>360</v>
+      <c r="Q9" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5465,11 +5452,11 @@
         <v>151</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O10" s="4" t="n">
         <v>2</v>
@@ -5478,7 +5465,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5489,7 +5476,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5500,10 +5487,10 @@
         <v>10</v>
       </c>
       <c r="M12" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>366</v>
       </c>
       <c r="O12" s="4" t="n">
         <v>2</v>
@@ -5512,7 +5499,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5522,15 +5509,15 @@
       <c r="P13" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="Q13" s="13" t="s">
-        <v>368</v>
+      <c r="Q13" s="12" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="39.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O14" s="4" t="n">
         <v>2</v>
@@ -5538,19 +5525,19 @@
       <c r="P14" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="Q14" s="13" t="s">
-        <v>370</v>
+      <c r="Q14" s="12" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K15" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L15" s="4" t="n">
         <v>13</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O15" s="4" t="n">
         <v>2</v>
@@ -5559,13 +5546,13 @@
         <v>13</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M16" s="4"/>
       <c r="N16" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O16" s="4" t="n">
         <v>2</v>
@@ -5574,25 +5561,24 @@
         <v>14</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E17" s="0"/>
+        <v>375</v>
+      </c>
       <c r="F17" s="4" t="n">
         <v>15</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I17" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="N17" s="21" t="s">
-        <v>378</v>
+      <c r="N17" s="20" t="s">
+        <v>377</v>
       </c>
       <c r="O17" s="4" t="n">
         <v>2</v>
@@ -5601,15 +5587,15 @@
         <v>15</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K18" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4" t="n">
@@ -5619,7 +5605,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5630,7 +5616,7 @@
         <v>17</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5641,12 +5627,12 @@
         <v>18</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N21" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O21" s="4" t="n">
         <v>3</v>
@@ -5654,8 +5640,8 @@
       <c r="P21" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="Q21" s="13" t="s">
-        <v>385</v>
+      <c r="Q21" s="12" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5665,8 +5651,8 @@
       <c r="P22" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="Q22" s="13" t="s">
-        <v>386</v>
+      <c r="Q22" s="12" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5674,10 +5660,10 @@
         <v>185</v>
       </c>
       <c r="L23" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="N23" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="O23" s="4" t="n">
         <v>3</v>
@@ -5686,12 +5672,12 @@
         <v>21</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N24" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O24" s="4" t="n">
         <v>3</v>
@@ -5699,13 +5685,13 @@
       <c r="P24" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="Q24" s="13" t="s">
-        <v>391</v>
+      <c r="Q24" s="12" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N25" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O25" s="4" t="n">
         <v>4</v>
@@ -5714,12 +5700,12 @@
         <v>23</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K26" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L26" s="4" t="n">
         <v>24</v>
@@ -5731,7 +5717,7 @@
         <v>24</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5742,7 +5728,7 @@
         <v>25</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5753,7 +5739,7 @@
         <v>26</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5764,7 +5750,7 @@
         <v>27</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5775,7 +5761,7 @@
         <v>28</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5786,7 +5772,7 @@
         <v>29</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5797,12 +5783,12 @@
         <v>30</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N33" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O33" s="4" t="n">
         <v>6</v>
@@ -5811,12 +5797,12 @@
         <v>31</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N34" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O34" s="4" t="n">
         <v>6</v>
@@ -5824,8 +5810,8 @@
       <c r="P34" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="Q34" s="13" t="s">
-        <v>404</v>
+      <c r="Q34" s="12" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5836,7 +5822,7 @@
         <v>33</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5847,7 +5833,7 @@
         <v>34</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5858,7 +5844,7 @@
         <v>35</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -5891,7 +5877,7 @@
       <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -5972,28 +5958,28 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E4" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>1</v>
@@ -6005,7 +5991,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6016,7 +6002,7 @@
         <v>4</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>1</v>
@@ -6025,7 +6011,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6035,13 +6021,13 @@
       <c r="P6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="13" t="s">
-        <v>414</v>
+      <c r="Q6" s="12" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H7" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>1</v>
@@ -6053,7 +6039,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6065,7 +6051,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6073,7 +6059,7 @@
         <v>93</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O9" s="4" t="n">
         <v>3</v>
@@ -6082,18 +6068,18 @@
         <v>7</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K10" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="M10" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>420</v>
       </c>
       <c r="O10" s="4" t="n">
         <v>3</v>
@@ -6102,7 +6088,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6113,7 +6099,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -6146,7 +6132,7 @@
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="5" width="19.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="5" width="21.75"/>
@@ -6231,11 +6217,11 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>424</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>69</v>
@@ -6244,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L3" s="7" t="n">
         <v>1</v>
@@ -6255,8 +6241,8 @@
       <c r="P3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="22" t="s">
-        <v>425</v>
+      <c r="Q3" s="21" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6264,10 +6250,10 @@
         <v>89</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="O4" s="7" t="n">
         <v>1</v>
@@ -6275,13 +6261,13 @@
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="22" t="s">
-        <v>428</v>
+      <c r="Q4" s="21" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G5" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I5" s="7" t="n">
         <v>1</v>
@@ -6290,7 +6276,7 @@
         <v>111</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O5" s="7" t="n">
         <v>2</v>
@@ -6299,7 +6285,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6310,12 +6296,12 @@
         <v>4</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G7" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I7" s="7" t="n">
         <v>5</v>
@@ -6327,15 +6313,15 @@
         <v>5</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="O8" s="7" t="n">
         <v>2</v>
@@ -6344,7 +6330,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6355,7 +6341,7 @@
         <v>5</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O9" s="7" t="n">
         <v>2</v>
@@ -6364,7 +6350,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6375,7 +6361,7 @@
         <v>6</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O10" s="7" t="n">
         <v>2</v>
@@ -6384,7 +6370,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6395,7 +6381,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6406,7 +6392,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6417,18 +6403,18 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K14" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L14" s="7" t="n">
         <v>12</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O14" s="7" t="n">
         <v>2</v>
@@ -6437,7 +6423,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6447,8 +6433,8 @@
       <c r="P15" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="Q15" s="12" t="s">
-        <v>446</v>
+      <c r="Q15" s="11" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6459,7 +6445,7 @@
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6476,7 +6462,7 @@
         <v>15</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6484,7 +6470,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6492,7 +6478,7 @@
         <v>17</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6611,11 +6597,11 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -6696,39 +6682,39 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="0" t="s">
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="0" t="n">
+      <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="Q3" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="0" t="s">
+      <c r="L4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="P4" s="7" t="n">
@@ -6739,19 +6725,19 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K5" s="0" t="s">
+      <c r="K5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="0" t="s">
+      <c r="L5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="Q5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6759,7 +6745,7 @@
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="Q6" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6767,7 +6753,7 @@
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="Q7" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6775,7 +6761,7 @@
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="Q8" s="0" t="s">
+      <c r="Q8" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6934,7 +6920,7 @@
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="5" width="18.51"/>
   </cols>
@@ -7018,26 +7004,26 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>451</v>
+      <c r="A3" s="9" t="s">
+        <v>450</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L3" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="O3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="O3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7048,7 +7034,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O4" s="7" t="n">
         <v>1</v>
@@ -7057,7 +7043,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7068,7 +7054,7 @@
         <v>4</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O5" s="7" t="n">
         <v>2</v>
@@ -7077,12 +7063,12 @@
         <v>3</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O6" s="7" t="n">
         <v>3</v>
@@ -7091,12 +7077,12 @@
         <v>4</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O7" s="7" t="n">
         <v>3</v>
@@ -7105,18 +7091,18 @@
         <v>5</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K8" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L8" s="7" t="n">
         <v>6</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O8" s="7" t="n">
         <v>3</v>
@@ -7125,18 +7111,18 @@
         <v>6</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K9" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L9" s="7" t="n">
         <v>6</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O9" s="7" t="n">
         <v>3</v>
@@ -7145,7 +7131,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7156,7 +7142,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7289,7 +7275,7 @@
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="5" width="30.5"/>
   </cols>
@@ -7373,29 +7359,29 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>198</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="O3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="11" t="s">
         <v>468</v>
-      </c>
-      <c r="O3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7405,8 +7391,8 @@
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="12" t="s">
-        <v>470</v>
+      <c r="Q4" s="11" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7417,7 +7403,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7428,7 +7414,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7439,7 +7425,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7450,7 +7436,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7458,13 +7444,13 @@
         <v>114</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>86</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O9" s="5" t="n">
         <v>1</v>
@@ -7473,7 +7459,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7629,7 +7615,7 @@
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -7710,14 +7696,14 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="F3" s="7" t="n">
         <v>1</v>
@@ -7735,7 +7721,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7752,12 +7738,12 @@
         <v>2</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G5" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>1</v>
@@ -7769,7 +7755,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7780,7 +7766,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7791,7 +7777,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7802,7 +7788,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7810,7 +7796,7 @@
         <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O9" s="5" t="n">
         <v>1</v>
@@ -7819,7 +7805,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7830,7 +7816,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7838,7 +7824,7 @@
         <v>130</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O11" s="5" t="n">
         <v>1</v>
@@ -7847,7 +7833,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7858,7 +7844,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7869,7 +7855,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8002,7 +7988,7 @@
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="5" width="24.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="5" width="26.39"/>
@@ -8087,13 +8073,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>492</v>
+      <c r="A3" s="9" t="s">
+        <v>491</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I3" s="7" t="n">
         <v>1</v>
@@ -8105,7 +8091,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="78.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8120,8 +8106,8 @@
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="12" t="s">
-        <v>494</v>
+      <c r="Q4" s="11" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8130,7 +8116,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="n">
@@ -8140,7 +8126,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8154,10 +8140,10 @@
         <v>9</v>
       </c>
       <c r="M6" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="N6" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="O6" s="7" t="n">
         <v>1</v>
@@ -8166,7 +8152,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8183,15 +8169,15 @@
         <v>5</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O8" s="7" t="n">
         <v>2</v>
@@ -8200,7 +8186,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8208,7 +8194,7 @@
         <v>198</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O9" s="7" t="n">
         <v>2</v>
@@ -8217,7 +8203,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8234,7 +8220,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8245,7 +8231,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8388,7 +8374,7 @@
       <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="26.25"/>
@@ -8397,41 +8383,41 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>506</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>509</v>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7"/>
@@ -8445,7 +8431,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D4" s="0"/>
     </row>
@@ -8455,7 +8441,7 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -8464,13 +8450,13 @@
         <v>151</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8479,103 +8465,103 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="D8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>521</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8584,22 +8570,22 @@
         <v>130</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8608,10 +8594,10 @@
         <v>23</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8619,16 +8605,16 @@
         <v>86</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D20" s="0"/>
     </row>
@@ -8637,7 +8623,7 @@
         <v>183</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D21" s="0"/>
     </row>
@@ -8663,102 +8649,102 @@
       <c r="D28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="26" t="s">
-        <v>537</v>
-      </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
+      <c r="A29" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="D31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>544</v>
       </c>
       <c r="D34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D36" s="7"/>
     </row>
@@ -8767,42 +8753,42 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>198</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D41" s="0"/>
     </row>
@@ -8811,77 +8797,77 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>553</v>
       </c>
       <c r="D43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="0"/>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="23" t="s">
         <v>556</v>
       </c>
-      <c r="D45" s="0"/>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="24" t="s">
-        <v>557</v>
-      </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="25"/>
-      <c r="V46" s="25"/>
-      <c r="W46" s="25"/>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="25"/>
-      <c r="Z46" s="25"/>
-      <c r="AA46" s="25"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="24"/>
+      <c r="V46" s="24"/>
+      <c r="W46" s="24"/>
+      <c r="X46" s="24"/>
+      <c r="Y46" s="24"/>
+      <c r="Z46" s="24"/>
+      <c r="AA46" s="24"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8892,7 +8878,7 @@
         <v>84</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D49" s="0"/>
     </row>
@@ -8902,31 +8888,31 @@
         <v>134</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D52" s="0"/>
     </row>
@@ -8935,63 +8921,63 @@
         <v>114</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C54" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D59" s="0"/>
     </row>
@@ -9003,10 +8989,10 @@
         <v>175</v>
       </c>
       <c r="C61" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9017,13 +9003,13 @@
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D65" s="0"/>
     </row>
@@ -9032,7 +9018,7 @@
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -9062,7 +9048,7 @@
       <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -9143,146 +9129,146 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="0" t="s">
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="0" t="n">
+      <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="n">
         <v>2</v>
       </c>
       <c r="P3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="Q3" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="0" t="n">
+      <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5" t="n">
         <v>2</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="Q4" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O5" s="0" t="n">
+      <c r="O5" s="5" t="n">
         <v>3</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="Q5" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O6" s="0" t="n">
+      <c r="O6" s="5" t="n">
         <v>3</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="Q6" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O7" s="0" t="n">
+      <c r="O7" s="5" t="n">
         <v>3</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="Q7" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K8" s="0" t="s">
+      <c r="K8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="L8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="M8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8" s="5" t="n">
         <v>3</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="Q8" s="0" t="s">
+      <c r="Q8" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K9" s="0" t="s">
+      <c r="K9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="L9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9" s="5" t="n">
         <v>3</v>
       </c>
       <c r="P9" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="Q9" s="0" t="s">
+      <c r="Q9" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K10" s="0" t="s">
+      <c r="K10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="L10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="N10" s="5" t="s">
         <v>46</v>
       </c>
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="Q10" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N11" s="0" t="s">
+      <c r="N11" s="5" t="s">
         <v>48</v>
       </c>
       <c r="P11" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="Q11" s="0" t="s">
+      <c r="Q11" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9423,10 +9409,10 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -9507,50 +9493,50 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="0" t="s">
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="0" t="n">
+      <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="Q3" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="Q4" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K5" s="0" t="s">
+      <c r="K5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="5" t="n">
         <v>2</v>
       </c>
       <c r="P5" s="7" t="n">
@@ -9727,9 +9713,9 @@
       <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="51.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="5" width="51.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9811,164 +9797,164 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="Q3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="R3" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O4" s="0" t="n">
+      <c r="O4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="Q4" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N5" s="0" t="s">
+      <c r="N5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5" s="5" t="n">
         <v>2</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="Q5" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O6" s="0" t="n">
+      <c r="O6" s="5" t="n">
         <v>2</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="Q6" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O7" s="0" t="n">
+      <c r="O7" s="5" t="n">
         <v>4</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="Q7" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O8" s="0" t="n">
+      <c r="O8" s="5" t="n">
         <v>4</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="Q8" s="0" t="s">
+      <c r="Q8" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O9" s="0" t="n">
+      <c r="O9" s="5" t="n">
         <v>4</v>
       </c>
       <c r="P9" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="Q9" s="0" t="s">
+      <c r="Q9" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O10" s="0" t="n">
+      <c r="O10" s="5" t="n">
         <v>5</v>
       </c>
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="Q10" s="0" t="s">
+      <c r="Q10" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="M11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="O11" s="5" t="n">
         <v>5</v>
       </c>
       <c r="P11" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="Q11" s="0" t="s">
+      <c r="Q11" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O12" s="0" t="n">
+      <c r="O12" s="5" t="n">
         <v>7</v>
       </c>
       <c r="P12" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="Q12" s="0" t="s">
+      <c r="Q12" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K13" s="0" t="s">
+      <c r="K13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="L13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N13" s="0" t="s">
+      <c r="N13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="O13" s="5" t="n">
         <v>7</v>
       </c>
       <c r="P13" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="Q13" s="0" t="s">
+      <c r="Q13" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O14" s="0" t="n">
+      <c r="O14" s="5" t="n">
         <v>8</v>
       </c>
       <c r="P14" s="7" t="n">
@@ -9979,35 +9965,35 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O15" s="0" t="n">
+      <c r="O15" s="5" t="n">
         <v>8</v>
       </c>
       <c r="P15" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="Q15" s="0" t="s">
+      <c r="Q15" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O16" s="0" t="n">
+      <c r="O16" s="5" t="n">
         <v>8</v>
       </c>
       <c r="P16" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="Q16" s="0" t="s">
+      <c r="Q16" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O17" s="0" t="n">
+      <c r="O17" s="5" t="n">
         <v>22</v>
       </c>
       <c r="P17" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="Q17" s="0" t="s">
+      <c r="Q17" s="5" t="s">
         <v>81</v>
       </c>
     </row>
@@ -10121,7 +10107,7 @@
       <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -10202,76 +10188,76 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="Q3" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="M4" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="Q4" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J5" s="0" t="s">
+      <c r="J5" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="L5" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="Q5" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O6" s="0" t="n">
+      <c r="O6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P6" s="7" t="n">
@@ -10282,79 +10268,79 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O7" s="0" t="n">
+      <c r="O7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="Q7" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O8" s="0" t="n">
+      <c r="O8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="Q8" s="0" t="s">
+      <c r="Q8" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O9" s="0" t="n">
+      <c r="O9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P9" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="Q9" s="0" t="s">
+      <c r="Q9" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O10" s="0" t="n">
+      <c r="O10" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="Q10" s="0" t="s">
+      <c r="Q10" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O11" s="0" t="n">
+      <c r="O11" s="5" t="n">
         <v>2</v>
       </c>
       <c r="P11" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="Q11" s="0" t="s">
+      <c r="Q11" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O12" s="0" t="n">
+      <c r="O12" s="5" t="n">
         <v>2</v>
       </c>
       <c r="P12" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="Q12" s="0" t="s">
+      <c r="Q12" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O13" s="0" t="n">
+      <c r="O13" s="5" t="n">
         <v>2</v>
       </c>
       <c r="P13" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="Q13" s="0" t="s">
+      <c r="Q13" s="5" t="s">
         <v>103</v>
       </c>
     </row>
@@ -10484,11 +10470,11 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -10569,16 +10555,16 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="0" t="n">
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P3" s="7" t="n">
@@ -10589,136 +10575,136 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O4" s="0" t="n">
+      <c r="O4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="Q4" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="Q5" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O6" s="0" t="n">
+      <c r="O6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="Q6" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J7" s="0" t="s">
+      <c r="J7" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="L7" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="Q7" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="L8" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="Q8" s="0" t="s">
+      <c r="Q8" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O9" s="0" t="n">
+      <c r="O9" s="5" t="n">
         <v>2</v>
       </c>
       <c r="P9" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="Q9" s="0" t="s">
+      <c r="Q9" s="5" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O10" s="0" t="n">
+      <c r="O10" s="5" t="n">
         <v>4</v>
       </c>
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="Q10" s="0" t="s">
+      <c r="Q10" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O11" s="0" t="n">
+      <c r="O11" s="5" t="n">
         <v>4</v>
       </c>
       <c r="P11" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="Q11" s="0" t="s">
+      <c r="Q11" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O12" s="0" t="n">
+      <c r="O12" s="5" t="n">
         <v>4</v>
       </c>
       <c r="P12" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="Q12" s="0" t="s">
+      <c r="Q12" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J13" s="0" t="s">
+      <c r="J13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="L13" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="O13" s="5" t="n">
         <v>6</v>
       </c>
       <c r="P13" s="7" t="n">
@@ -10729,89 +10715,89 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J14" s="0" t="s">
+      <c r="J14" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="L14" s="0" t="s">
+      <c r="L14" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="O14" s="5" t="n">
         <v>9</v>
       </c>
       <c r="P14" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="Q14" s="0" t="s">
+      <c r="Q14" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J15" s="0" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J15" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="L15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="O15" s="5" t="n">
         <v>9</v>
       </c>
       <c r="P15" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="Q15" s="0" t="s">
+      <c r="Q15" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O16" s="0" t="n">
+      <c r="O16" s="5" t="n">
         <v>10</v>
       </c>
       <c r="P16" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="Q16" s="0" t="s">
+      <c r="Q16" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O17" s="0" t="n">
+      <c r="O17" s="5" t="n">
         <v>10</v>
       </c>
       <c r="P17" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="Q17" s="0" t="s">
+      <c r="Q17" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J18" s="0" t="s">
+      <c r="J18" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="O18" s="5" t="n">
         <v>11</v>
       </c>
       <c r="P18" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="Q18" s="0" t="s">
+      <c r="Q18" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L19" s="0" t="n">
+      <c r="L19" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="O19" s="5" t="n">
         <v>11</v>
       </c>
       <c r="P19" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="Q19" s="9" t="s">
+      <c r="Q19" s="5" t="s">
         <v>132</v>
       </c>
     </row>
@@ -10915,7 +10901,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -11348,7 +11334,7 @@
       <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">

--- a/v2/AIID_Technical_Taxonomies_v2.xlsx
+++ b/v2/AIID_Technical_Taxonomies_v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Incident 34 breakdown" sheetId="1" state="visible" r:id="rId2"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="742">
   <si>
     <t xml:space="preserve">AI Tasks</t>
   </si>
@@ -320,9 +320,6 @@
     <t xml:space="preserve">1, 4, 5</t>
   </si>
   <si>
-    <t xml:space="preserve">Data Noise</t>
-  </si>
-  <si>
     <t xml:space="preserve">4, 5, 7</t>
   </si>
   <si>
@@ -472,7 +469,7 @@
     <t xml:space="preserve">Inside Amazon, the Flex program is considered a great success, whose benefits far outweigh the collateral damage, said a former engineer who helped design the system. “Executives knew this was gonna shit the bed,” this person said. “That’s actually how they put it in meetings. The only question was how much poo we wanted there to be.”</t>
   </si>
   <si>
-    <t xml:space="preserve">Misconfigured Thresholding</t>
+    <t xml:space="preserve">Misconfigured Threshold</t>
   </si>
   <si>
     <t xml:space="preserve">9, 13</t>
@@ -520,9 +517,6 @@
   <si>
     <t xml:space="preserve">Chinese AI traffic cam mistook a bus ad for a human and publicly shamed the CEO it depicted for jaywalking
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learning Dataset Noise</t>
   </si>
   <si>
     <t xml:space="preserve">In case the training dataset contains such false positives</t>
@@ -1192,9 +1186,6 @@
   </si>
   <si>
     <t xml:space="preserve">Attorney General Merrick Garland has directed the department to look for ways to assess racial bias and make the tool more transparent, a spokeswoman said.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Misconfigured Threshold</t>
   </si>
   <si>
     <t xml:space="preserve">One option is to adjust the cutoff points between the risk categories, allowing more prisoners to earn credits for release, which would "maximize access to First Step Act relief while ensuring public safety," she said.</t>
@@ -2239,6 +2230,9 @@
   </si>
   <si>
     <t xml:space="preserve">The model's decision arises by considering multiple marginal predictions, the combination of which is skewed (e.g. under/overestimating contribution of a particular component) or otherwise problematic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misconfigured Thresholding</t>
   </si>
   <si>
     <t xml:space="preserve">The model's decision threshold is configured to favor a subset of classes, leading in large performance differences in, e.g. precision and recall.</t>
@@ -2796,11 +2790,14 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.09"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -2881,45 +2878,45 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="0" t="n">
+      <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="Q3" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="0" t="s">
+      <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4" s="5" t="n">
         <v>3</v>
       </c>
       <c r="P4" s="7" t="n">
@@ -2930,133 +2927,133 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5" s="5" t="n">
         <v>4</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="Q5" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6" s="5" t="n">
         <v>12</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="Q6" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K7" s="0" t="s">
+      <c r="K7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="M7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7" s="5" t="n">
         <v>15</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="Q7" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K8" s="0" t="s">
+      <c r="K8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="M8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8" s="5" t="n">
         <v>15</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="Q8" s="0" t="s">
+      <c r="Q8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K9" s="0" t="s">
+      <c r="K9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="L9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9" s="5" t="n">
         <v>15</v>
       </c>
       <c r="P9" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="Q9" s="0" t="s">
+      <c r="Q9" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K10" s="0" t="s">
+      <c r="K10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="M10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="O10" s="5" t="n">
         <v>19</v>
       </c>
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="Q10" s="0" t="s">
+      <c r="Q10" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K11" s="0" t="s">
+      <c r="K11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="M11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="O11" s="5" t="n">
         <v>27</v>
       </c>
       <c r="P11" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="Q11" s="0" t="s">
+      <c r="Q11" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3197,10 +3194,10 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -3282,36 +3279,36 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H4" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1</v>
@@ -3323,18 +3320,18 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K5" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O5" s="5" t="n">
         <v>1</v>
@@ -3343,7 +3340,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3354,7 +3351,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3362,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O7" s="5" t="n">
         <v>1</v>
@@ -3371,7 +3368,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3379,7 +3376,7 @@
         <v>60</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O8" s="5" t="n">
         <v>1</v>
@@ -3388,7 +3385,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3399,7 +3396,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3413,7 +3410,7 @@
         <v>10</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O10" s="5" t="n">
         <v>2</v>
@@ -3422,21 +3419,21 @@
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K11" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L11" s="5" t="n">
         <v>10</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O11" s="5" t="n">
         <v>2</v>
@@ -3445,7 +3442,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3456,7 +3453,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3467,7 +3464,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3600,7 +3597,7 @@
       <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -3682,16 +3679,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>1</v>
@@ -3703,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3714,30 +3711,30 @@
         <v>1</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K5" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3745,7 +3742,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3753,7 +3750,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3761,7 +3758,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3919,7 +3916,7 @@
       <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -4001,16 +3998,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>1</v>
@@ -4022,12 +4019,12 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H4" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1</v>
@@ -4039,7 +4036,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4050,7 +4047,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4061,7 +4058,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4072,18 +4069,18 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="O8" s="5" t="n">
         <v>3</v>
@@ -4092,18 +4089,18 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K9" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O9" s="5" t="n">
         <v>3</v>
@@ -4112,35 +4109,35 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K10" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N11" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P11" s="7" t="n">
         <v>9</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4283,7 +4280,7 @@
       <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -4365,33 +4362,33 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="I3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H4" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1</v>
@@ -4400,7 +4397,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4584,7 +4581,7 @@
       <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="5" width="51.79"/>
   </cols>
@@ -4669,22 +4666,22 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="O3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4695,12 +4692,12 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N5" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O5" s="5" t="n">
         <v>2</v>
@@ -4709,7 +4706,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4720,7 +4717,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4731,7 +4728,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4742,7 +4739,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4753,7 +4750,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4764,24 +4761,24 @@
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H11" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L11" s="5" t="n">
         <v>5</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O11" s="5" t="n">
         <v>5</v>
@@ -4790,7 +4787,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4801,18 +4798,18 @@
         <v>10</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K13" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O13" s="5" t="n">
         <v>7</v>
@@ -4821,7 +4818,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4832,7 +4829,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4843,7 +4840,7 @@
         <v>13</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4854,7 +4851,7 @@
         <v>14</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4865,7 +4862,7 @@
         <v>15</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4978,7 +4975,7 @@
       <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -5060,25 +5057,25 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>277</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>72</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O3" s="5" t="n">
         <v>1</v>
@@ -5087,18 +5084,18 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K4" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O4" s="5" t="n">
         <v>1</v>
@@ -5107,7 +5104,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5115,7 +5112,7 @@
         <v>57</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O5" s="5" t="n">
         <v>1</v>
@@ -5124,7 +5121,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5135,7 +5132,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5146,7 +5143,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5157,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5168,7 +5165,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5179,7 +5176,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5190,7 +5187,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5201,7 +5198,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5212,7 +5209,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5345,7 +5342,7 @@
       <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -5427,22 +5424,22 @@
     </row>
     <row r="3" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5453,12 +5450,12 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G5" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>3</v>
@@ -5470,7 +5467,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5481,15 +5478,15 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J7" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O7" s="5" t="n">
         <v>1</v>
@@ -5498,7 +5495,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5506,13 +5503,13 @@
         <v>70</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>72</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O8" s="5" t="n">
         <v>1</v>
@@ -5521,7 +5518,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5532,7 +5529,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5543,7 +5540,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5554,7 +5551,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5565,7 +5562,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5573,7 +5570,7 @@
         <v>27</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O13" s="5" t="n">
         <v>6</v>
@@ -5582,7 +5579,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5590,7 +5587,7 @@
         <v>30</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O14" s="5" t="n">
         <v>9</v>
@@ -5599,12 +5596,12 @@
         <v>12</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J15" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L15" s="5" t="n">
         <v>14</v>
@@ -5616,7 +5613,7 @@
         <v>13</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5627,7 +5624,7 @@
         <v>14</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5638,7 +5635,7 @@
         <v>15</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5655,7 +5652,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5669,7 +5666,7 @@
         <v>17</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5769,10 +5766,10 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -5854,39 +5851,39 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="F3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="O3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>320</v>
-      </c>
-      <c r="I3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="O3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G4" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O4" s="5" t="n">
         <v>1</v>
@@ -5895,7 +5892,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5906,7 +5903,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5917,7 +5914,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5928,7 +5925,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5936,7 +5933,7 @@
         <v>72</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O8" s="5" t="n">
         <v>1</v>
@@ -5945,7 +5942,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5956,7 +5953,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5967,18 +5964,18 @@
         <v>8</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K11" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L11" s="5" t="n">
         <v>9</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O11" s="5" t="n">
         <v>1</v>
@@ -5987,12 +5984,12 @@
         <v>9</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K12" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L12" s="5" t="n">
         <v>10</v>
@@ -6004,12 +6001,12 @@
         <v>10</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K13" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L13" s="5" t="n">
         <v>15</v>
@@ -6021,7 +6018,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6029,7 +6026,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O14" s="5" t="n">
         <v>2</v>
@@ -6038,12 +6035,12 @@
         <v>12</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K15" s="5" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="L15" s="5" t="n">
         <v>17</v>
@@ -6055,7 +6052,7 @@
         <v>13</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6066,7 +6063,7 @@
         <v>14</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6077,7 +6074,7 @@
         <v>15</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6088,7 +6085,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6099,7 +6096,7 @@
         <v>17</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6110,7 +6107,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6205,7 +6202,7 @@
       <selection pane="topLeft" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="28.84"/>
   </cols>
@@ -6290,10 +6287,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
@@ -6305,12 +6302,12 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N4" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="O4" s="5" t="n">
         <v>9</v>
@@ -6319,12 +6316,12 @@
         <v>2</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H5" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>3</v>
@@ -6333,21 +6330,21 @@
         <v>57</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="225.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G6" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I6" s="5" t="n">
         <v>3</v>
@@ -6356,7 +6353,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6364,7 +6361,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6523,11 +6520,11 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K27" activeCellId="0" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="23.22"/>
   </cols>
@@ -6612,36 +6609,36 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>353</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H4" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>5</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6649,7 +6646,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6657,18 +6654,18 @@
         <v>4</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N7" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6676,12 +6673,12 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J9" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L9" s="5" t="n">
         <v>7</v>
@@ -6690,12 +6687,12 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J10" s="5" t="s">
-        <v>365</v>
+        <v>135</v>
       </c>
       <c r="L10" s="5" t="n">
         <v>8</v>
@@ -6704,18 +6701,18 @@
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K11" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L11" s="5" t="n">
         <v>6</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P11" s="7" t="n">
         <v>9</v>
@@ -6735,7 +6732,7 @@
         <v>3</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P12" s="7" t="n">
         <v>10</v>
@@ -6876,7 +6873,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -7135,10 +7132,10 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -7220,10 +7217,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
@@ -7235,12 +7232,12 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N4" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="O4" s="5" t="n">
         <v>1</v>
@@ -7249,10 +7246,10 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7269,12 +7266,12 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H6" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I6" s="5" t="n">
         <v>1</v>
@@ -7286,24 +7283,24 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H7" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L7" s="5" t="n">
         <v>5</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="O7" s="5" t="n">
         <v>2</v>
@@ -7312,7 +7309,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7329,12 +7326,12 @@
         <v>6</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K9" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="O9" s="5" t="n">
         <v>2</v>
@@ -7345,7 +7342,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J10" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L10" s="5" t="n">
         <v>6</v>
@@ -7499,7 +7496,7 @@
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -7581,10 +7578,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
@@ -7596,12 +7593,12 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G4" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2</v>
@@ -7613,12 +7610,12 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G5" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>3</v>
@@ -7630,18 +7627,18 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G6" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O6" s="5" t="n">
         <v>2</v>
@@ -7650,24 +7647,24 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H7" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>390</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>393</v>
       </c>
       <c r="O7" s="5" t="n">
         <v>2</v>
@@ -7676,12 +7673,12 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N8" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="O8" s="5" t="n">
         <v>2</v>
@@ -7690,15 +7687,15 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G9" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="O9" s="5" t="n">
         <v>3</v>
@@ -7707,7 +7704,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7718,7 +7715,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7729,7 +7726,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7740,7 +7737,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7751,7 +7748,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7762,7 +7759,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7773,7 +7770,7 @@
         <v>13</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7784,7 +7781,7 @@
         <v>14</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7795,7 +7792,7 @@
         <v>15</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7806,7 +7803,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7908,10 +7905,10 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -7993,10 +7990,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
@@ -8005,7 +8002,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8016,18 +8013,18 @@
         <v>3</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K5" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L5" s="5" t="n">
         <v>2</v>
@@ -8036,7 +8033,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8053,13 +8050,13 @@
         <v>2</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8076,13 +8073,13 @@
         <v>1</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8090,12 +8087,12 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H9" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I9" s="5" t="n">
         <v>7</v>
@@ -8104,7 +8101,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8257,7 +8254,7 @@
       <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="5" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="5" width="22.81"/>
@@ -8344,17 +8341,17 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O3" s="7" t="n">
         <v>1</v>
@@ -8363,21 +8360,21 @@
         <v>1</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H4" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I4" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="O4" s="7" t="n">
         <v>1</v>
@@ -8386,7 +8383,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8397,7 +8394,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8408,7 +8405,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8419,7 +8416,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8430,12 +8427,12 @@
         <v>6</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N9" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="O9" s="7" t="n">
         <v>1</v>
@@ -8444,7 +8441,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8452,7 +8449,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8460,24 +8457,24 @@
         <v>9</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J12" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="P12" s="7" t="n">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8485,7 +8482,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8618,7 +8615,7 @@
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="5" width="32.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="19.88"/>
@@ -8715,20 +8712,20 @@
     </row>
     <row r="3" customFormat="false" ht="101.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I3" s="7" t="n">
         <v>10</v>
@@ -8737,24 +8734,24 @@
         <v>1</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F4" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8765,52 +8762,52 @@
         <v>3</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="623.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H7" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="39.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K8" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="L8" s="7" t="n">
         <v>7</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8818,40 +8815,40 @@
         <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="P9" s="7" t="n">
         <v>7</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I10" s="7" t="n">
         <v>8</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="76.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8861,7 +8858,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8875,7 +8872,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="39.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8883,7 +8880,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8891,27 +8888,27 @@
         <v>54</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="P14" s="7" t="n">
         <v>12</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J15" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="P15" s="7" t="n">
         <v>13</v>
@@ -8928,12 +8925,12 @@
         <v>14</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J17" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L17" s="7" t="n">
         <v>2</v>
@@ -8943,18 +8940,18 @@
         <v>15</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N18" s="4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="P18" s="7" t="n">
         <v>16</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8962,7 +8959,7 @@
         <v>17</v>
       </c>
       <c r="Q19" s="13" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9055,7 +9052,7 @@
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="5.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="5" width="5.88"/>
@@ -9153,11 +9150,11 @@
     </row>
     <row r="3" customFormat="false" ht="16.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="15" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O3" s="4" t="n">
         <v>1</v>
@@ -9166,24 +9163,24 @@
         <v>1</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="M4" s="11" t="s">
         <v>480</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>483</v>
       </c>
       <c r="O4" s="4" t="n">
         <v>1</v>
@@ -9192,7 +9189,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="39.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9200,10 +9197,10 @@
         <v>72</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>2</v>
@@ -9212,7 +9209,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9220,10 +9217,10 @@
         <v>57</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="O6" s="4" t="n">
         <v>2</v>
@@ -9232,7 +9229,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9243,12 +9240,12 @@
         <v>5</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I8" s="7" t="n">
         <v>6</v>
@@ -9260,12 +9257,12 @@
         <v>6</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G9" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I9" s="7" t="n">
         <v>6</v>
@@ -9277,7 +9274,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9289,7 +9286,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9297,7 +9294,7 @@
         <v>70</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="O11" s="4" t="n">
         <v>8</v>
@@ -9306,7 +9303,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9317,7 +9314,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9328,18 +9325,18 @@
         <v>11</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H14" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="O14" s="4" t="n">
         <v>12</v>
@@ -9348,18 +9345,18 @@
         <v>12</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H15" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O15" s="4" t="n">
         <v>13</v>
@@ -9368,18 +9365,18 @@
         <v>13</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H16" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="O16" s="4" t="n">
         <v>15</v>
@@ -9388,18 +9385,18 @@
         <v>14</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E17" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4" t="n">
@@ -9409,10 +9406,10 @@
         <v>15</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9423,7 +9420,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9434,7 +9431,7 @@
         <v>17</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9445,7 +9442,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9456,7 +9453,7 @@
         <v>19</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9467,7 +9464,7 @@
         <v>20</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9478,7 +9475,7 @@
         <v>21</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -9511,7 +9508,7 @@
       <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="5" width="32.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="19.88"/>
@@ -9606,7 +9603,7 @@
     </row>
     <row r="3" customFormat="false" ht="39.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B3" s="19"/>
       <c r="M3" s="4"/>
@@ -9618,15 +9615,15 @@
         <v>1</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="4" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="O4" s="4" t="n">
         <v>1</v>
@@ -9635,7 +9632,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9646,13 +9643,13 @@
         <v>3</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M6" s="4"/>
       <c r="N6" s="4" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="O6" s="4" t="n">
         <v>1</v>
@@ -9661,7 +9658,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9672,7 +9669,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9683,7 +9680,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9691,7 +9688,7 @@
         <v>57</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="O9" s="4" t="n">
         <v>1</v>
@@ -9700,19 +9697,19 @@
         <v>7</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K10" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="O10" s="4" t="n">
         <v>2</v>
@@ -9721,7 +9718,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9732,21 +9729,21 @@
         <v>9</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K12" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L12" s="4" t="n">
         <v>10</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="O12" s="4" t="n">
         <v>2</v>
@@ -9755,7 +9752,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9766,14 +9763,14 @@
         <v>11</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="39.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="O14" s="4" t="n">
         <v>2</v>
@@ -9782,7 +9779,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9793,7 +9790,7 @@
         <v>13</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="O15" s="4" t="n">
         <v>2</v>
@@ -9802,13 +9799,13 @@
         <v>13</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M16" s="4"/>
       <c r="N16" s="4" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="O16" s="4" t="n">
         <v>2</v>
@@ -9817,24 +9814,24 @@
         <v>14</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="4" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>15</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="I17" s="4" t="n">
         <v>15</v>
       </c>
       <c r="N17" s="20" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="O17" s="4" t="n">
         <v>2</v>
@@ -9843,15 +9840,15 @@
         <v>15</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K18" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4" t="n">
@@ -9861,7 +9858,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9872,7 +9869,7 @@
         <v>17</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9883,12 +9880,12 @@
         <v>18</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N21" s="4" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="O21" s="4" t="n">
         <v>3</v>
@@ -9897,7 +9894,7 @@
         <v>19</v>
       </c>
       <c r="Q21" s="12" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9908,18 +9905,18 @@
         <v>20</v>
       </c>
       <c r="Q22" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K23" s="4" t="s">
-        <v>365</v>
+        <v>135</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="O23" s="4" t="n">
         <v>3</v>
@@ -9928,12 +9925,12 @@
         <v>21</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N24" s="4" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="O24" s="4" t="n">
         <v>3</v>
@@ -9942,12 +9939,12 @@
         <v>22</v>
       </c>
       <c r="Q24" s="12" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N25" s="4" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="O25" s="4" t="n">
         <v>4</v>
@@ -9956,7 +9953,7 @@
         <v>23</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9973,7 +9970,7 @@
         <v>24</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9984,7 +9981,7 @@
         <v>25</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9995,7 +9992,7 @@
         <v>26</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10006,7 +10003,7 @@
         <v>27</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10017,7 +10014,7 @@
         <v>28</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10028,7 +10025,7 @@
         <v>29</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10039,12 +10036,12 @@
         <v>30</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N33" s="4" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="O33" s="4" t="n">
         <v>6</v>
@@ -10053,12 +10050,12 @@
         <v>31</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N34" s="4" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="O34" s="4" t="n">
         <v>6</v>
@@ -10067,7 +10064,7 @@
         <v>32</v>
       </c>
       <c r="Q34" s="12" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10078,7 +10075,7 @@
         <v>33</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10089,7 +10086,7 @@
         <v>34</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10100,7 +10097,7 @@
         <v>35</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -10133,7 +10130,7 @@
       <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -10215,10 +10212,10 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>1</v>
@@ -10230,12 +10227,12 @@
         <v>1</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E4" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>1</v>
@@ -10247,7 +10244,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10258,7 +10255,7 @@
         <v>4</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>1</v>
@@ -10267,7 +10264,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10278,12 +10275,12 @@
         <v>4</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H7" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>1</v>
@@ -10295,7 +10292,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10307,7 +10304,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10315,7 +10312,7 @@
         <v>57</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="O9" s="4" t="n">
         <v>3</v>
@@ -10324,7 +10321,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10332,10 +10329,10 @@
         <v>38</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="O10" s="4" t="n">
         <v>3</v>
@@ -10344,7 +10341,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10355,7 +10352,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -10388,7 +10385,7 @@
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="5" width="19.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="5" width="21.75"/>
@@ -10474,19 +10471,19 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="L3" s="7" t="n">
         <v>1</v>
@@ -10498,18 +10495,18 @@
         <v>1</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K4" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="O4" s="7" t="n">
         <v>1</v>
@@ -10518,21 +10515,21 @@
         <v>2</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G5" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="I5" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="O5" s="7" t="n">
         <v>2</v>
@@ -10541,7 +10538,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10552,12 +10549,12 @@
         <v>4</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G7" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="I7" s="7" t="n">
         <v>5</v>
@@ -10569,15 +10566,15 @@
         <v>5</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="O8" s="7" t="n">
         <v>2</v>
@@ -10586,18 +10583,18 @@
         <v>6</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G9" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I9" s="7" t="n">
         <v>5</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="O9" s="7" t="n">
         <v>2</v>
@@ -10606,18 +10603,18 @@
         <v>7</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H10" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I10" s="7" t="n">
         <v>6</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="O10" s="7" t="n">
         <v>2</v>
@@ -10626,7 +10623,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10637,7 +10634,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10648,7 +10645,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10659,7 +10656,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10670,7 +10667,7 @@
         <v>12</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="O14" s="7" t="n">
         <v>2</v>
@@ -10679,7 +10676,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10690,7 +10687,7 @@
         <v>13</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10701,12 +10698,12 @@
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="n">
         <v>15</v>
@@ -10718,7 +10715,7 @@
         <v>15</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10726,7 +10723,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10734,7 +10731,7 @@
         <v>17</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10857,7 +10854,7 @@
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="5" width="18.51"/>
   </cols>
@@ -10942,36 +10939,36 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="O3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="7" t="s">
         <v>620</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="O3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H4" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I4" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="O4" s="7" t="n">
         <v>1</v>
@@ -10980,18 +10977,18 @@
         <v>2</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H5" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I5" s="7" t="n">
         <v>4</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="O5" s="7" t="n">
         <v>2</v>
@@ -11000,12 +10997,12 @@
         <v>3</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="5" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="O6" s="7" t="n">
         <v>3</v>
@@ -11014,12 +11011,12 @@
         <v>4</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="5" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="O7" s="7" t="n">
         <v>3</v>
@@ -11028,18 +11025,18 @@
         <v>5</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K8" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L8" s="7" t="n">
         <v>6</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="O8" s="7" t="n">
         <v>3</v>
@@ -11048,18 +11045,18 @@
         <v>6</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K9" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L9" s="7" t="n">
         <v>6</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="O9" s="7" t="n">
         <v>3</v>
@@ -11068,7 +11065,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11079,7 +11076,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11212,7 +11209,7 @@
       <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -11293,27 +11290,27 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="0" t="n">
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="Q3" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O4" s="0" t="n">
+      <c r="O4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P4" s="7" t="n">
@@ -11324,215 +11321,215 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O5" s="0" t="n">
+      <c r="O5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="Q5" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O6" s="0" t="n">
+      <c r="O6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="Q6" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K7" s="0" t="s">
+      <c r="K7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="Q7" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="Q8" s="0" t="s">
+      <c r="Q8" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J9" s="0" t="s">
+      <c r="J9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="L9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P9" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="Q9" s="0" t="s">
+      <c r="Q9" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O10" s="0" t="n">
+      <c r="O10" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="Q10" s="0" t="s">
+      <c r="Q10" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K11" s="0" t="s">
+      <c r="K11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="L11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="O11" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P11" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="Q11" s="0" t="s">
+      <c r="Q11" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J12" s="0" t="s">
+      <c r="J12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="L12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="O12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P12" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="Q12" s="0" t="s">
+      <c r="Q12" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K13" s="0" t="s">
+      <c r="K13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="L13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="O13" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P13" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="Q13" s="0" t="s">
+      <c r="Q13" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J14" s="0" t="s">
+      <c r="J14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="L14" s="0" t="s">
+      <c r="L14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="O14" s="5" t="n">
         <v>2</v>
       </c>
       <c r="P14" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="Q14" s="0" t="s">
+      <c r="Q14" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O15" s="0" t="n">
+      <c r="O15" s="5" t="n">
         <v>2</v>
       </c>
       <c r="P15" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="Q15" s="0" t="s">
+      <c r="Q15" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O16" s="0" t="n">
+      <c r="O16" s="5" t="n">
         <v>2</v>
       </c>
       <c r="P16" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="Q16" s="0" t="s">
+      <c r="Q16" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O17" s="0" t="n">
+      <c r="O17" s="5" t="n">
         <v>2</v>
       </c>
       <c r="P17" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="Q17" s="0" t="s">
+      <c r="Q17" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O18" s="0" t="n">
+      <c r="O18" s="5" t="n">
         <v>2</v>
       </c>
       <c r="P18" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="Q18" s="0" t="s">
+      <c r="Q18" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="0" t="s">
+      <c r="H19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="I19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="K19" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="0" t="s">
+      <c r="L19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="O19" s="5" t="n">
         <v>3</v>
       </c>
       <c r="P19" s="7" t="n">
@@ -11543,7 +11540,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O20" s="0" t="n">
+      <c r="O20" s="5" t="n">
         <v>3</v>
       </c>
       <c r="P20" s="7" t="n">
@@ -11554,21 +11551,21 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O21" s="0" t="n">
+      <c r="O21" s="5" t="n">
         <v>4</v>
       </c>
       <c r="P21" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="Q21" s="0" t="s">
+      <c r="Q21" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N22" s="0" t="s">
+      <c r="N22" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="O22" s="5" t="n">
         <v>5</v>
       </c>
       <c r="P22" s="7" t="n">
@@ -11579,44 +11576,44 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K23" s="0" t="s">
+      <c r="K23" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="L23" s="0" t="s">
+      <c r="L23" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="M23" s="0" t="s">
+      <c r="M23" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="O23" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P23" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="Q23" s="0" t="s">
+      <c r="Q23" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N24" s="0" t="s">
+      <c r="N24" s="5" t="s">
         <v>81</v>
       </c>
       <c r="P24" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="Q24" s="0" t="s">
+      <c r="Q24" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N25" s="0" t="s">
+      <c r="N25" s="5" t="s">
         <v>81</v>
       </c>
       <c r="P25" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="Q25" s="0" t="s">
+      <c r="Q25" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -11690,7 +11687,7 @@
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="5" width="30.5"/>
   </cols>
@@ -11775,19 +11772,19 @@
     </row>
     <row r="3" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="O3" s="7" t="n">
         <v>1</v>
@@ -11796,7 +11793,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11807,7 +11804,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11818,7 +11815,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11829,7 +11826,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11840,7 +11837,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11851,7 +11848,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11859,13 +11856,13 @@
         <v>70</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>72</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="O9" s="5" t="n">
         <v>1</v>
@@ -11874,7 +11871,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12030,7 +12027,7 @@
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -12112,31 +12109,31 @@
     </row>
     <row r="3" customFormat="false" ht="16.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
+        <v>642</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="7" t="s">
         <v>645</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="F3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="I3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12153,12 +12150,12 @@
         <v>2</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G5" s="5" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>1</v>
@@ -12170,7 +12167,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12181,7 +12178,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12192,7 +12189,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12203,15 +12200,15 @@
         <v>6</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J9" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O9" s="5" t="n">
         <v>1</v>
@@ -12220,7 +12217,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12231,7 +12228,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12239,7 +12236,7 @@
         <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="O11" s="5" t="n">
         <v>1</v>
@@ -12248,7 +12245,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12259,7 +12256,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12270,7 +12267,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12403,7 +12400,7 @@
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="5" width="24.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="5" width="26.39"/>
@@ -12489,12 +12486,12 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I3" s="7" t="n">
         <v>1</v>
@@ -12506,14 +12503,14 @@
         <v>1</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="78.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O4" s="7" t="n">
         <v>1</v>
@@ -12522,7 +12519,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12531,7 +12528,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="n">
@@ -12541,7 +12538,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12549,16 +12546,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L6" s="7" t="n">
         <v>9</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="O6" s="7" t="n">
         <v>1</v>
@@ -12567,7 +12564,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12584,15 +12581,15 @@
         <v>5</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="5" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="O8" s="7" t="n">
         <v>2</v>
@@ -12601,15 +12598,15 @@
         <v>6</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H9" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="O9" s="7" t="n">
         <v>2</v>
@@ -12618,12 +12615,12 @@
         <v>7</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1</v>
@@ -12635,7 +12632,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12646,7 +12643,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12789,7 +12786,7 @@
       <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="26.25"/>
@@ -12799,16 +12796,16 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="23" t="s">
+        <v>671</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>672</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>673</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>674</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>675</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>676</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>677</v>
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
@@ -12842,36 +12839,36 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="7" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="7" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12880,55 +12877,55 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>684</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>687</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>136</v>
+        <v>685</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12936,7 +12933,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D12" s="0"/>
     </row>
@@ -12945,38 +12942,38 @@
         <v>38</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12985,34 +12982,34 @@
         <v>21</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
       <c r="B18" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13020,7 +13017,7 @@
         <v>72</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D19" s="0"/>
     </row>
@@ -13029,16 +13026,16 @@
         <v>63</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D21" s="0"/>
     </row>
@@ -13065,7 +13062,7 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="25" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
@@ -13096,70 +13093,70 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D36" s="7"/>
     </row>
@@ -13168,42 +13165,42 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D41" s="0"/>
     </row>
@@ -13212,40 +13209,40 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="23" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
@@ -13276,13 +13273,13 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13290,44 +13287,44 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7"/>
       <c r="B50" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D52" s="0"/>
     </row>
@@ -13336,63 +13333,63 @@
         <v>70</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D59" s="0"/>
     </row>
@@ -13401,13 +13398,13 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13418,13 +13415,13 @@
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D65" s="0"/>
     </row>
@@ -13433,7 +13430,7 @@
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
   </sheetData>
@@ -13460,10 +13457,10 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O15" activeCellId="0" sqref="O15"/>
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -13544,133 +13541,133 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="O3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="O3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="0" t="s">
+      <c r="F4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="Q4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="R4" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="R4" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K5" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="Q5" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J6" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J6" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="0" t="s">
-        <v>97</v>
+      <c r="Q6" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O7" s="0" t="n">
+      <c r="O7" s="5" t="n">
         <v>5</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O8" s="0" t="n">
+      <c r="O8" s="5" t="n">
         <v>9</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="Q8" s="0" t="s">
-        <v>99</v>
+      <c r="Q8" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O9" s="0" t="n">
+      <c r="O9" s="5" t="n">
         <v>9</v>
       </c>
       <c r="P9" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="Q9" s="0" t="s">
-        <v>100</v>
+      <c r="Q9" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O10" s="0" t="n">
+      <c r="O10" s="5" t="n">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="Q10" s="0" t="s">
-        <v>101</v>
+      <c r="Q10" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13818,7 +13815,7 @@
       <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -13899,136 +13896,136 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="8" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G4" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
       <c r="Q4" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G5" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="Q5" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G6" s="0" t="s">
+      <c r="I6" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
       <c r="Q6" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K7" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K7" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7" s="5" t="n">
         <v>3</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" s="0" t="s">
-        <v>113</v>
+      <c r="Q7" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K8" s="0" t="s">
+      <c r="K8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8" s="5" t="n">
         <v>5</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="Q8" s="0" t="s">
-        <v>114</v>
+      <c r="Q8" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O9" s="0" t="n">
+      <c r="O9" s="5" t="n">
         <v>17</v>
       </c>
       <c r="P9" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="Q9" s="0" t="s">
-        <v>115</v>
+      <c r="Q9" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O10" s="0" t="n">
+      <c r="O10" s="5" t="n">
         <v>19</v>
       </c>
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="Q10" s="0" t="s">
-        <v>116</v>
+      <c r="Q10" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14173,10 +14170,10 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -14258,16 +14255,16 @@
     </row>
     <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>14</v>
@@ -14279,18 +14276,18 @@
         <v>1</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="O4" s="5" t="n">
         <v>1</v>
@@ -14299,21 +14296,21 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H5" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="I5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="O5" s="5" t="n">
         <v>1</v>
@@ -14322,15 +14319,15 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="O6" s="5" t="n">
         <v>1</v>
@@ -14339,7 +14336,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14350,7 +14347,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14361,7 +14358,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14372,7 +14369,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14383,18 +14380,18 @@
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="M11" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="O11" s="5" t="n">
         <v>1</v>
@@ -14403,7 +14400,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14420,7 +14417,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14437,12 +14434,12 @@
         <v>11</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K14" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L14" s="5" t="n">
         <v>17</v>
@@ -14454,7 +14451,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14465,7 +14462,7 @@
         <v>13</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14476,7 +14473,7 @@
         <v>14</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14487,7 +14484,7 @@
         <v>15</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14498,7 +14495,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14509,7 +14506,7 @@
         <v>17</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14609,10 +14606,10 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N17" activeCellId="0" sqref="N17"/>
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -14694,16 +14691,16 @@
     </row>
     <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>1</v>
@@ -14715,27 +14712,27 @@
         <v>1</v>
       </c>
       <c r="M3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="O3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K4" s="5" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O4" s="5" t="n">
         <v>2</v>
@@ -14744,18 +14741,18 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H5" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>4</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O5" s="5" t="n">
         <v>6</v>
@@ -14764,12 +14761,12 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H6" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I6" s="5" t="n">
         <v>5</v>
@@ -14781,7 +14778,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14792,7 +14789,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14803,7 +14800,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14814,7 +14811,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14967,7 +14964,7 @@
       <selection pane="topLeft" activeCell="G36" activeCellId="0" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -15049,22 +15046,22 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="P3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="I3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15072,7 +15069,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15086,12 +15083,12 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J6" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L6" s="5" t="n">
         <v>4</v>
@@ -15100,12 +15097,12 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G7" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>5</v>
@@ -15114,12 +15111,12 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>5</v>
@@ -15128,12 +15125,12 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H9" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I9" s="5" t="n">
         <v>7</v>
@@ -15142,41 +15139,41 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K10" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K11" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L11" s="5" t="n">
         <v>8</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="n">
         <v>9</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15190,38 +15187,38 @@
         <v>10</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J13" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L13" s="5" t="n">
         <v>2</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="n">
         <v>11</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K14" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P14" s="7" t="n">
         <v>12</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15229,7 +15226,7 @@
         <v>13</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15237,7 +15234,7 @@
         <v>14</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15355,7 +15352,7 @@
       <selection pane="topLeft" activeCell="N15" activeCellId="0" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -15437,16 +15434,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>1</v>
@@ -15464,7 +15461,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15475,7 +15472,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15486,7 +15483,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15497,7 +15494,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15508,7 +15505,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15519,7 +15516,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15530,7 +15527,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15541,7 +15538,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/v2/AIID_Technical_Taxonomies_v2.xlsx
+++ b/v2/AIID_Technical_Taxonomies_v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Incident 146 breakdown" sheetId="1" state="visible" r:id="rId2"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="870">
   <si>
     <t xml:space="preserve">AI Tasks</t>
   </si>
@@ -121,7 +121,7 @@
     <t xml:space="preserve">Distributional Learning</t>
   </si>
   <si>
-    <t xml:space="preserve">Distributional Biases</t>
+    <t xml:space="preserve">Distributional Bias</t>
   </si>
   <si>
     <t xml:space="preserve">7, 2</t>
@@ -190,9 +190,6 @@
     <t xml:space="preserve">Autonomous Driving</t>
   </si>
   <si>
-    <t xml:space="preserve">Visual Object Recognition</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hardware Failure</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
     <t xml:space="preserve">Without sufficient guardrails, models like DALL·E 2 could be used to generate a wide range of deceptive and otherwise harmful content, and could affect how people perceive the authenticity of content more generally.</t>
   </si>
   <si>
-    <t xml:space="preserve">Distributional Bias</t>
-  </si>
-  <si>
     <t xml:space="preserve">2, 4, 5, 6, 12</t>
   </si>
   <si>
@@ -241,7 +235,7 @@
     <t xml:space="preserve">While the deeply contextual nature of bias makes it difficult to measure and mitigate the actual downstream harms resulting from use of the DALL·E 2 Preview (i.e. beyond the point of generation), our intent is to provide concrete illustrations here that can inform users and affected non-users even at this very initial preview stage.</t>
   </si>
   <si>
-    <t xml:space="preserve">Unauthoriatazed D</t>
+    <t xml:space="preserve">Unauthorized Data</t>
   </si>
   <si>
     <t xml:space="preserve">The default behavior of the DALL·E 2 Preview produces images that tend to overrepresent people who are White-passing and Western concepts generally. In some places it over-represents generations of people who are female-passing (such as for the prompt: “a flight attendant” ) while in others it over-represents generations of people who are male-passing (such as for the prompt: “a builder”). In some places this is representative of stereotypes (as discussed below) but in others the pattern being recreated is less immediately clear.</t>
@@ -284,21 +278,15 @@
     <t xml:space="preserve">Text Generation</t>
   </si>
   <si>
-    <t xml:space="preserve">Unauthorized Data Access</t>
-  </si>
-  <si>
     <t xml:space="preserve">3, 4, 5</t>
   </si>
   <si>
-    <t xml:space="preserve">Perhaps it could be moved to ‘potential’, since it is contested in the article.</t>
+    <t xml:space="preserve">Classifying as‘potential’, since it is heavily contested in the article.</t>
   </si>
   <si>
     <t xml:space="preserve">GitHub Copilot draws context from the code you’re working on, suggesting whole lines or entire functions.</t>
   </si>
   <si>
-    <t xml:space="preserve">Move to potential?</t>
-  </si>
-  <si>
     <t xml:space="preserve">OpenAI Codex has broad knowledge of how people use code and is significantly more capable than GPT-3 in code generation, in part, because it was trained on a data set that includes a much larger concentration of public source code. </t>
   </si>
   <si>
@@ -317,9 +305,6 @@
     <t xml:space="preserve">https://incidentdatabase.ai/cite/141#r1479</t>
   </si>
   <si>
-    <t xml:space="preserve">Near-duplicate Search</t>
-  </si>
-  <si>
     <t xml:space="preserve">Acoustic Fingerprint</t>
   </si>
   <si>
@@ -329,9 +314,6 @@
     <t xml:space="preserve">We know this because he’s become a viral sensation on Instagram after blasting the 1990’s hit at a citizen in a misguided attempt to get Instagram’s algorithm to take down a live stream due to copyright infringement.</t>
   </si>
   <si>
-    <t xml:space="preserve">Should the task here be something like copyrighted content detection or something modality-specific? E.g. audio recognition. Resolve one of the two tasks annotated.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Copyrighted Content Detection</t>
   </si>
   <si>
@@ -551,7 +533,7 @@
     <t xml:space="preserve">One user even reported the alarm stubbornly going off for 30 minutes in the middle of the night with no sign of smoke and ignoring prompts to dismiss the alarm after an apparent glitch in the device…</t>
   </si>
   <si>
-    <t xml:space="preserve">Home Automation as a task?</t>
+    <t xml:space="preserve">Smart Devices</t>
   </si>
   <si>
     <t xml:space="preserve">Gesture Recognition</t>
@@ -560,6 +542,9 @@
     <t xml:space="preserve">Several users have echoed a similar experience on a Nest Community support thread reporting cases where the Nest Protect hardware had to be replaced to resolve the issue with startling false alarms. </t>
   </si>
   <si>
+    <t xml:space="preserve">Verify task; reapply to annotated incidents</t>
+  </si>
+  <si>
     <t xml:space="preserve">Limited User Access</t>
   </si>
   <si>
@@ -587,7 +572,7 @@
     <t xml:space="preserve">https://incidentdatabase.ai/cite/133#r1468</t>
   </si>
   <si>
-    <t xml:space="preserve">Content Moderation and Filtering</t>
+    <t xml:space="preserve">Automated Content Curation</t>
   </si>
   <si>
     <t xml:space="preserve">Object Detection</t>
@@ -829,9 +814,6 @@
     <t xml:space="preserve">Petrov considered the detection a computer error, since a first-strike nuclear attack by the United States was likely to involve hundreds of simultaneous missile launches in order to disable any Soviet means of a counterattack.</t>
   </si>
   <si>
-    <t xml:space="preserve">Task label is generic; revisit if more specific is needed, e.g. ‘missile detection’</t>
-  </si>
-  <si>
     <t xml:space="preserve">4,5,6</t>
   </si>
   <si>
@@ -842,12 +824,18 @@
   </si>
   <si>
     <t xml:space="preserve">It was subsequently determined that the false alarms were caused by a rare alignment of sunlight on high-altitude clouds and the satellites' Molniya orbits,[13] an error later corrected by cross-referencing a geostationary satellite.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earth Observation</t>
   </si>
   <si>
     <t xml:space="preserve">It later emerged that the false alarm was the result of a satellite mistaking the reflection of the sun’s rays off the tops of clouds for a missile launch.
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Decide on how generic a task we want here. E.g. Visual Object Detection, Earth Observation, Defence System, Missle Defence System.</t>
+  </si>
+  <si>
     <t xml:space="preserve">“And that day the satellites told us with the highest degree of certainty that these rockets were on the way.”</t>
   </si>
   <si>
@@ -1140,9 +1128,6 @@
     <t xml:space="preserve">On a Thursday afternoon in January, Robert Julian-Borchak Williams was in his office at an automotive supply company when he got a call from the Detroit Police Department telling him to come to the station to be arrested.</t>
   </si>
   <si>
-    <t xml:space="preserve">Face recognition here is a task; could very well be a technology in other applications.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Facial recognition systems have been used by police forces for more than two decades. Recent studies by M.I.T. and the National Institute of Standards and Technology, or NIST, have found that while the technology works relatively well on white men, the results are less accurate for other demographics, in part because of a lack of diversity in the images used to develop the underlying databases.</t>
   </si>
   <si>
@@ -1167,13 +1152,7 @@
     <t xml:space="preserve">“If we would use the software only [to identify subjects], we would not solve the case 95-97 percent of the time,” Craig said. “That’s if we relied totally on the software, which would be against our current policy … If we were just to use the technology by itself, to identify someone, I would say 96 percent of the time it would misidentify."</t>
   </si>
   <si>
-    <t xml:space="preserve">Minorities under-represented in the learning dataset</t>
-  </si>
-  <si>
     <t xml:space="preserve">According to the policy, the software must be used only “on a still image of an individual,” and can only be used as part of an ongoing criminal investigation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unclear if calling this ‘distributional bias’ is correct.</t>
   </si>
   <si>
     <t xml:space="preserve">If low-quality data only mostly present during deployment.</t>
@@ -1289,9 +1268,6 @@
   </si>
   <si>
     <t xml:space="preserve">The May 6, 2010, Flash Crash,[1][2] also known as the Crash of 2:45, the 2010 Flash Crash or simply the Flash Crash, was a United States trillion-dollar[3] stock market crash, which started at 2:32 p.m. EDT and lasted for approximately 36 minutes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reports for this incident are truncated.</t>
   </si>
   <si>
     <t xml:space="preserve"> Sarao began his alleged market manipulation in 2009 with commercially available trading software whose code he modified "so he could rapidly place and cancel orders automatically.</t>
@@ -1650,9 +1626,6 @@
     <t xml:space="preserve">The software, created by the recruitment company HireVue, looked at the content of their answers and their expressions, and its results were used alongside other data about their job performance.</t>
   </si>
   <si>
-    <t xml:space="preserve">See snippet comment to resolve. Scope-related.</t>
-  </si>
-  <si>
     <t xml:space="preserve">She said that in the interview they were asked questions about putting on make-up — but rather than demonstrating it they had to describe the process, which she found difficult.</t>
   </si>
   <si>
@@ -1675,6 +1648,9 @@
     <t xml:space="preserve">Inadequate Data Sampling</t>
   </si>
   <si>
+    <t xml:space="preserve">Makeup skill assessment with verbal descriptions, rather visual media.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://incidentdatabase.ai/cite/39#r679</t>
   </si>
   <si>
@@ -1792,16 +1768,13 @@
     <t xml:space="preserve">https://incidentdatabase.ai/cite/137#r1474</t>
   </si>
   <si>
-    <t xml:space="preserve">Processing</t>
+    <t xml:space="preserve">Financial Processing</t>
   </si>
   <si>
     <t xml:space="preserve">The system probably does not use AI at all.</t>
   </si>
   <si>
     <t xml:space="preserve">The story began in 2014 when the farm Har Shemesh, which is not part of any community, asked the Tax Authority to explain how it had calculated a fine they were required to pay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hard to define the task here! </t>
   </si>
   <si>
     <t xml:space="preserve">Perhaps a manually built model  is used to arrive at numeric costs, weighing different input components.</t>
@@ -2087,13 +2060,13 @@
     <t xml:space="preserve">The confusion came from the system misidentifying a similar Arabic word which means “to hurt.”</t>
   </si>
   <si>
+    <t xml:space="preserve">Image Classification</t>
+  </si>
+  <si>
     <t xml:space="preserve">If multimodal learning is used, perhaps the buldozer was recognized and its extracted keyword contributed to the bias in the NLP domain.</t>
   </si>
   <si>
     <t xml:space="preserve">Arabic speakers explained that English transliteration used by Facebook is not an actual word in Arabic but could look like the verb “to hurt” – even though any Arabic speaker could clearly see the transliteration did not match the translation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task / technology leaking problem.</t>
   </si>
   <si>
     <t xml:space="preserve">Google Translate also mistranslates the phrase, turning it into “become them,” likely because the literal translation of “morning” in Arabic is “day becoming.”
@@ -2705,6 +2678,9 @@
   </si>
   <si>
     <t xml:space="preserve">Task / Domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processing</t>
   </si>
   <si>
     <t xml:space="preserve">Computation that does not involve the usage of AI and ML.</t>
@@ -3022,7 +2998,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3055,16 +3031,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -3223,8 +3195,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3308,167 +3280,167 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="Q3" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="s">
+      <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="Q4" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="s">
+      <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="L5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="Q5" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K6" s="0" t="s">
+      <c r="K6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="Q6" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K7" s="0" t="s">
+      <c r="K7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="L7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="M7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="Q7" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J8" s="0" t="s">
+      <c r="J8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="Q8" s="0" t="s">
+      <c r="Q8" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O9" s="0" t="n">
+      <c r="O9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P9" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="Q9" s="0" t="s">
+      <c r="Q9" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O10" s="0" t="n">
+      <c r="O10" s="5" t="n">
         <v>2</v>
       </c>
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="Q10" s="0" t="s">
+      <c r="Q10" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O11" s="0" t="n">
+      <c r="O11" s="5" t="n">
         <v>3</v>
       </c>
       <c r="P11" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="Q11" s="0" t="s">
+      <c r="Q11" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3609,7 +3581,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+      <selection pane="topLeft" activeCell="R5" activeCellId="0" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3694,16 +3666,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>1</v>
@@ -3715,21 +3687,24 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="G4" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>3</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>2</v>
@@ -3741,12 +3716,15 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K5" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L5" s="5" t="n">
         <v>3</v>
@@ -3758,18 +3736,18 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J6" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L6" s="5" t="n">
         <v>4</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O6" s="5" t="n">
         <v>3</v>
@@ -3778,18 +3756,18 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K7" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="O7" s="5" t="n">
         <v>4</v>
@@ -3798,15 +3776,15 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K8" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
@@ -4052,22 +4030,22 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O3" s="5" t="n">
         <v>1</v>
@@ -4076,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4087,18 +4065,18 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K5" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L5" s="5" t="n">
         <v>3</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="O5" s="5" t="n">
         <v>1</v>
@@ -4107,18 +4085,18 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K6" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L6" s="5" t="n">
         <v>4</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="O6" s="5" t="n">
         <v>1</v>
@@ -4127,18 +4105,18 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K7" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L7" s="5" t="n">
         <v>4</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="O7" s="5" t="n">
         <v>1</v>
@@ -4147,38 +4125,38 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K8" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K9" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P9" s="7" t="n">
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4328,7 +4306,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4416,16 +4394,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>1</v>
@@ -4437,7 +4415,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4448,7 +4426,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>2</v>
@@ -4459,13 +4437,13 @@
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="10" t="s">
-        <v>195</v>
+      <c r="Q4" s="8" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G5" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>9</v>
@@ -4477,12 +4455,12 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L6" s="5" t="n">
         <v>3</v>
@@ -4494,18 +4472,18 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K7" s="5" t="s">
-        <v>73</v>
+      <c r="K7" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="L7" s="5" t="n">
         <v>4</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="O7" s="5" t="n">
         <v>15</v>
@@ -4514,18 +4492,18 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K8" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L8" s="5" t="n">
         <v>4</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="O8" s="5" t="n">
         <v>15</v>
@@ -4534,7 +4512,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4542,7 +4520,7 @@
         <v>30</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="O9" s="5" t="n">
         <v>15</v>
@@ -4551,18 +4529,18 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K10" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L10" s="5" t="n">
         <v>7</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="O10" s="5" t="n">
         <v>19</v>
@@ -4571,18 +4549,18 @@
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K11" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="L11" s="5" t="n">
         <v>8</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="O11" s="5" t="n">
         <v>27</v>
@@ -4591,7 +4569,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4816,10 +4794,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
@@ -4831,7 +4809,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4841,8 +4819,8 @@
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="10" t="s">
-        <v>212</v>
+      <c r="Q4" s="8" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4853,7 +4831,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4864,7 +4842,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4881,12 +4859,12 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G8" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>6</v>
@@ -4898,7 +4876,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4906,7 +4884,7 @@
         <v>30</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="O9" s="5" t="n">
         <v>1</v>
@@ -4915,7 +4893,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4926,15 +4904,15 @@
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K11" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="O11" s="5" t="n">
         <v>1</v>
@@ -4943,15 +4921,15 @@
         <v>9</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J12" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="O12" s="5" t="n">
         <v>1</v>
@@ -4960,15 +4938,15 @@
         <v>10</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K13" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="O13" s="5" t="n">
         <v>1</v>
@@ -4977,15 +4955,15 @@
         <v>11</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J14" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="O14" s="5" t="n">
         <v>2</v>
@@ -4994,7 +4972,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5005,7 +4983,7 @@
         <v>13</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5016,7 +4994,7 @@
         <v>14</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5027,7 +5005,7 @@
         <v>15</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5038,7 +5016,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5046,13 +5024,13 @@
         <v>18</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="O19" s="5" t="n">
         <v>3</v>
@@ -5060,8 +5038,8 @@
       <c r="P19" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="Q19" s="10" t="s">
-        <v>235</v>
+      <c r="Q19" s="8" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5071,8 +5049,8 @@
       <c r="P20" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="Q20" s="10" t="s">
-        <v>236</v>
+      <c r="Q20" s="8" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5083,12 +5061,12 @@
         <v>19</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N22" s="5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="O22" s="5" t="n">
         <v>5</v>
@@ -5096,19 +5074,19 @@
       <c r="P22" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="Q22" s="10" t="s">
-        <v>239</v>
+      <c r="Q22" s="8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K23" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="O23" s="5" t="n">
         <v>1</v>
@@ -5117,29 +5095,29 @@
         <v>21</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N24" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="P24" s="7" t="n">
         <v>22</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N25" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="P25" s="7" t="n">
         <v>23</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5208,8 +5186,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N24" activeCellId="0" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5294,19 +5272,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O3" s="5" t="n">
         <v>1</v>
@@ -5315,21 +5293,15 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>1</v>
-      </c>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="O4" s="5" t="n">
         <v>1</v>
@@ -5338,18 +5310,15 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K5" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="O5" s="5" t="n">
         <v>1</v>
@@ -5358,12 +5327,12 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J6" s="5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L6" s="5" t="n">
         <v>7</v>
@@ -5375,18 +5344,27 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="O7" s="5" t="n">
         <v>5</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" s="10" t="s">
-        <v>258</v>
+      <c r="Q7" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5397,7 +5375,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5408,7 +5386,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5419,7 +5397,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5649,16 +5627,16 @@
     </row>
     <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L3" s="5" t="n">
         <v>1</v>
@@ -5669,13 +5647,13 @@
       <c r="P3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="10" t="s">
-        <v>264</v>
+      <c r="Q3" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G4" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>4</v>
@@ -5686,13 +5664,13 @@
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="10" t="s">
-        <v>266</v>
+      <c r="Q4" s="8" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G5" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>6</v>
@@ -5704,15 +5682,15 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G6" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="O6" s="5" t="n">
         <v>1</v>
@@ -5720,13 +5698,13 @@
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="10" t="s">
-        <v>271</v>
+      <c r="Q6" s="8" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K7" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L7" s="5" t="n">
         <v>5</v>
@@ -5738,7 +5716,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5755,7 +5733,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5766,7 +5744,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5777,7 +5755,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6007,16 +5985,16 @@
     </row>
     <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>14</v>
@@ -6027,19 +6005,19 @@
       <c r="P3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="10" t="s">
-        <v>279</v>
+      <c r="Q3" s="8" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K4" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="O4" s="5" t="n">
         <v>1</v>
@@ -6048,21 +6026,21 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H5" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="O5" s="5" t="n">
         <v>1</v>
@@ -6071,15 +6049,15 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G6" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="O6" s="5" t="n">
         <v>1</v>
@@ -6088,7 +6066,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6099,7 +6077,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6110,7 +6088,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6121,7 +6099,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6132,18 +6110,18 @@
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K11" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="O11" s="5" t="n">
         <v>1</v>
@@ -6152,12 +6130,12 @@
         <v>9</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K12" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L12" s="5" t="n">
         <v>17</v>
@@ -6169,7 +6147,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6186,12 +6164,12 @@
         <v>11</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K14" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L14" s="5" t="n">
         <v>17</v>
@@ -6202,8 +6180,8 @@
       <c r="P14" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="Q14" s="10" t="s">
-        <v>298</v>
+      <c r="Q14" s="8" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6214,7 +6192,7 @@
         <v>13</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6225,7 +6203,7 @@
         <v>14</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6236,7 +6214,7 @@
         <v>15</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6247,7 +6225,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6258,7 +6236,7 @@
         <v>17</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6443,16 +6421,16 @@
     </row>
     <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>1</v>
@@ -6464,7 +6442,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="O3" s="5" t="n">
         <v>1</v>
@@ -6472,19 +6450,19 @@
       <c r="P3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="10" t="s">
-        <v>306</v>
+      <c r="Q3" s="8" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K4" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="O4" s="5" t="n">
         <v>2</v>
@@ -6493,18 +6471,18 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H5" s="5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>4</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="O5" s="5" t="n">
         <v>6</v>
@@ -6513,12 +6491,12 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H6" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I6" s="5" t="n">
         <v>5</v>
@@ -6530,7 +6508,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6541,7 +6519,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6551,8 +6529,8 @@
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="Q8" s="10" t="s">
-        <v>314</v>
+      <c r="Q8" s="8" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6563,7 +6541,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6798,22 +6776,22 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6821,7 +6799,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6835,12 +6813,12 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J6" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L6" s="5" t="n">
         <v>4</v>
@@ -6849,12 +6827,12 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G7" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>5</v>
@@ -6863,12 +6841,12 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>5</v>
@@ -6877,12 +6855,12 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H9" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I9" s="5" t="n">
         <v>7</v>
@@ -6891,24 +6869,24 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K10" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6919,18 +6897,18 @@
         <v>8</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P11" s="7" t="n">
         <v>9</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J12" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L12" s="5" t="n">
         <v>8</v>
@@ -6939,46 +6917,46 @@
         <v>10</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J13" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L13" s="5" t="n">
         <v>2</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="P13" s="7" t="n">
         <v>11</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K14" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="P14" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="Q14" s="10" t="s">
-        <v>337</v>
+      <c r="Q14" s="8" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P15" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="Q15" s="10" t="s">
-        <v>338</v>
+      <c r="Q15" s="8" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6986,7 +6964,7 @@
         <v>14</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7186,22 +7164,22 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L3" s="5" t="n">
         <v>1</v>
@@ -7213,7 +7191,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7224,7 +7202,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7235,7 +7213,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7246,7 +7224,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7257,7 +7235,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7268,7 +7246,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7279,7 +7257,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7289,8 +7267,8 @@
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="Q10" s="10" t="s">
-        <v>350</v>
+      <c r="Q10" s="8" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7435,7 +7413,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7519,63 +7497,59 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="0" t="s">
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="K3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="s">
+      <c r="L3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K4" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="0" t="s">
-        <v>46</v>
+      <c r="Q4" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O5" s="0" t="n">
+      <c r="O5" s="5" t="n">
         <v>3</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" s="0" t="s">
-        <v>47</v>
+      <c r="Q5" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7745,7 +7719,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
+      <selection pane="topLeft" activeCell="R3" activeCellId="0" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7830,16 +7804,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>1</v>
@@ -7851,15 +7825,13 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>353</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="R3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H4" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1</v>
@@ -7871,18 +7843,21 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I5" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O5" s="5" t="n">
         <v>1</v>
@@ -7891,7 +7866,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7902,15 +7877,15 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K7" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O7" s="5" t="n">
         <v>1</v>
@@ -7919,15 +7894,15 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K8" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="O8" s="5" t="n">
         <v>1</v>
@@ -7936,7 +7911,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7947,22 +7922,16 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>362</v>
-      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
       <c r="O10" s="5" t="n">
         <v>2</v>
       </c>
@@ -7970,21 +7939,19 @@
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>364</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="R10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K11" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L11" s="5" t="n">
         <v>10</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="O11" s="5" t="n">
         <v>2</v>
@@ -7993,7 +7960,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8004,7 +7971,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8015,7 +7982,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8230,16 +8197,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>1</v>
@@ -8251,41 +8218,41 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K4" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="10" t="s">
-        <v>372</v>
+      <c r="Q4" s="8" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K5" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8293,7 +8260,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8301,7 +8268,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8309,7 +8276,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8549,7 +8516,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>41</v>
@@ -8558,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>1</v>
@@ -8570,12 +8537,12 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H4" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1</v>
@@ -8587,7 +8554,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8598,7 +8565,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8609,7 +8576,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8620,18 +8587,18 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K8" s="5" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="O8" s="5" t="n">
         <v>3</v>
@@ -8640,18 +8607,18 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="O9" s="5" t="n">
         <v>3</v>
@@ -8660,35 +8627,35 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K10" s="5" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N11" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="P11" s="7" t="n">
         <v>9</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8828,7 +8795,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8913,16 +8880,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>1</v>
@@ -8934,12 +8901,12 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H4" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1</v>
@@ -8948,12 +8915,12 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K5" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="L5" s="5" t="n">
         <v>2</v>
@@ -9129,7 +9096,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9217,10 +9184,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="O3" s="5" t="n">
         <v>1</v>
@@ -9229,11 +9196,9 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>403</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="R3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O4" s="5" t="n">
@@ -9243,12 +9208,12 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N5" s="5" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="O5" s="5" t="n">
         <v>2</v>
@@ -9257,7 +9222,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9268,7 +9233,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9279,7 +9244,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9290,7 +9255,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9301,7 +9266,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9312,15 +9277,15 @@
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H11" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>23</v>
@@ -9329,7 +9294,7 @@
         <v>5</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="O11" s="5" t="n">
         <v>5</v>
@@ -9338,7 +9303,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9349,18 +9314,18 @@
         <v>10</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K13" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="O13" s="5" t="n">
         <v>7</v>
@@ -9369,7 +9334,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9379,8 +9344,8 @@
       <c r="P14" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="Q14" s="10" t="s">
-        <v>418</v>
+      <c r="Q14" s="8" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9391,7 +9356,7 @@
         <v>13</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9402,7 +9367,7 @@
         <v>14</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9413,7 +9378,7 @@
         <v>15</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9608,25 +9573,25 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="O3" s="5" t="n">
         <v>1</v>
@@ -9635,18 +9600,18 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K4" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="O4" s="5" t="n">
         <v>1</v>
@@ -9655,15 +9620,15 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J5" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="O5" s="5" t="n">
         <v>1</v>
@@ -9672,7 +9637,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9682,8 +9647,8 @@
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="10" t="s">
-        <v>432</v>
+      <c r="Q6" s="8" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9694,7 +9659,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9705,7 +9670,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9716,7 +9681,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9727,7 +9692,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9738,7 +9703,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9749,7 +9714,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9760,7 +9725,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9889,8 +9854,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9975,10 +9940,10 @@
     </row>
     <row r="3" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
@@ -9989,8 +9954,8 @@
       <c r="P3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="10" t="s">
-        <v>442</v>
+      <c r="Q3" s="8" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10001,12 +9966,12 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G5" s="5" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>3</v>
@@ -10018,7 +9983,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10029,15 +9994,15 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J7" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="O7" s="5" t="n">
         <v>1</v>
@@ -10046,7 +10011,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10054,13 +10019,13 @@
         <v>18</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="O8" s="5" t="n">
         <v>1</v>
@@ -10069,7 +10034,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10080,7 +10045,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10091,7 +10056,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10102,7 +10067,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10113,15 +10078,15 @@
         <v>10</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J13" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="O13" s="5" t="n">
         <v>6</v>
@@ -10129,16 +10094,16 @@
       <c r="P13" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="Q13" s="10" t="s">
-        <v>457</v>
+      <c r="Q13" s="8" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J14" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="O14" s="5" t="n">
         <v>9</v>
@@ -10147,12 +10112,12 @@
         <v>12</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J15" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L15" s="5" t="n">
         <v>14</v>
@@ -10164,7 +10129,7 @@
         <v>13</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10175,7 +10140,7 @@
         <v>14</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10186,12 +10151,12 @@
         <v>15</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J18" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L18" s="5" t="n">
         <v>11</v>
@@ -10203,7 +10168,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10217,7 +10182,7 @@
         <v>17</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10402,7 +10367,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
@@ -10414,7 +10379,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="O3" s="5" t="n">
         <v>1</v>
@@ -10423,18 +10388,18 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G4" s="5" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="O4" s="5" t="n">
         <v>1</v>
@@ -10443,7 +10408,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10454,7 +10419,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10465,7 +10430,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10475,16 +10440,16 @@
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" s="10" t="s">
-        <v>470</v>
+      <c r="Q7" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J8" s="5" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="O8" s="5" t="n">
         <v>1</v>
@@ -10493,7 +10458,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10504,7 +10469,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10514,19 +10479,19 @@
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="Q10" s="10" t="s">
-        <v>474</v>
+      <c r="Q10" s="8" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K11" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L11" s="5" t="n">
         <v>9</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="O11" s="5" t="n">
         <v>1</v>
@@ -10535,12 +10500,12 @@
         <v>9</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K12" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L12" s="5" t="n">
         <v>10</v>
@@ -10552,12 +10517,12 @@
         <v>10</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K13" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L13" s="5" t="n">
         <v>15</v>
@@ -10569,7 +10534,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10577,7 +10542,7 @@
         <v>30</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="O14" s="5" t="n">
         <v>2</v>
@@ -10586,12 +10551,12 @@
         <v>12</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K15" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L15" s="5" t="n">
         <v>17</v>
@@ -10603,7 +10568,7 @@
         <v>13</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10614,7 +10579,7 @@
         <v>14</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10625,7 +10590,7 @@
         <v>15</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10636,7 +10601,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10647,7 +10612,7 @@
         <v>17</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10658,7 +10623,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10838,7 +10803,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>41</v>
@@ -10853,12 +10818,12 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N4" s="5" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="O4" s="5" t="n">
         <v>9</v>
@@ -10866,36 +10831,36 @@
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="10" t="s">
-        <v>490</v>
+      <c r="Q4" s="8" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H5" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>3</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="225.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G6" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I6" s="5" t="n">
         <v>3</v>
@@ -10903,16 +10868,16 @@
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="10" t="s">
-        <v>493</v>
+      <c r="Q6" s="8" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" s="10" t="s">
-        <v>494</v>
+      <c r="Q7" s="8" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11160,10 +11125,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
@@ -11172,24 +11137,24 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H4" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>5</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11197,26 +11162,26 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="10" t="s">
-        <v>501</v>
+      <c r="Q6" s="8" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N7" s="5" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11224,12 +11189,12 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J9" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L9" s="5" t="n">
         <v>7</v>
@@ -11238,12 +11203,12 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J10" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L10" s="5" t="n">
         <v>8</v>
@@ -11252,18 +11217,18 @@
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K11" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L11" s="5" t="n">
         <v>6</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="P11" s="7" t="n">
         <v>9</v>
@@ -11277,13 +11242,13 @@
         <v>3</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="L12" s="5" t="n">
         <v>3</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="P12" s="7" t="n">
         <v>10</v>
@@ -11682,8 +11647,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11768,10 +11733,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
@@ -11783,12 +11748,12 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N4" s="5" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="O4" s="5" t="n">
         <v>1</v>
@@ -11797,15 +11762,13 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>513</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="R4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G5" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>3</v>
@@ -11817,12 +11780,12 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H6" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I6" s="5" t="n">
         <v>1</v>
@@ -11834,24 +11797,24 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H7" s="5" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L7" s="5" t="n">
         <v>5</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="O7" s="5" t="n">
         <v>2</v>
@@ -11860,7 +11823,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11876,24 +11839,22 @@
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="Q8" s="10" t="s">
-        <v>519</v>
+      <c r="Q8" s="8" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K9" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="O9" s="5" t="n">
-        <v>2</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="O9" s="5"/>
       <c r="P9" s="7" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J10" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L10" s="5" t="n">
         <v>6</v>
@@ -11903,11 +11864,23 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K11" s="0" t="s">
+        <v>132</v>
+      </c>
       <c r="P11" s="7" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J12" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>512</v>
+      </c>
       <c r="P12" s="7" t="n">
         <v>10</v>
       </c>
@@ -12129,10 +12102,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
@@ -12144,12 +12117,12 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G4" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2</v>
@@ -12161,12 +12134,12 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G5" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>3</v>
@@ -12178,18 +12151,18 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G6" s="5" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="O6" s="5" t="n">
         <v>2</v>
@@ -12198,24 +12171,24 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H7" s="5" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="O7" s="5" t="n">
         <v>2</v>
@@ -12224,12 +12197,12 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N8" s="5" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="O8" s="5" t="n">
         <v>2</v>
@@ -12238,15 +12211,15 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G9" s="5" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="O9" s="5" t="n">
         <v>3</v>
@@ -12255,7 +12228,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12266,7 +12239,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12277,7 +12250,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12288,7 +12261,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12299,7 +12272,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12310,7 +12283,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12321,7 +12294,7 @@
         <v>13</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12332,7 +12305,7 @@
         <v>14</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12343,7 +12316,7 @@
         <v>15</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12354,7 +12327,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12541,7 +12514,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>17</v>
@@ -12553,29 +12526,29 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K4" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>3</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K5" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L5" s="5" t="n">
         <v>2</v>
@@ -12584,7 +12557,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12595,19 +12568,19 @@
         <v>4</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L6" s="5" t="n">
         <v>2</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12624,13 +12597,13 @@
         <v>1</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12638,7 +12611,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12652,7 +12625,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12802,7 +12775,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12891,18 +12864,18 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>559</v>
+      <c r="A3" s="10" t="s">
+        <v>551</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="O3" s="7" t="n">
         <v>1</v>
@@ -12911,21 +12884,19 @@
         <v>1</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>563</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="R3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H4" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I4" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="O4" s="7" t="n">
         <v>1</v>
@@ -12934,7 +12905,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12945,7 +12916,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12956,7 +12927,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12967,7 +12938,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12978,12 +12949,12 @@
         <v>6</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N9" s="7" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="O9" s="7" t="n">
         <v>1</v>
@@ -12992,7 +12963,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13000,7 +12971,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13008,24 +12979,24 @@
         <v>9</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J12" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="P12" s="7" t="n">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13033,7 +13004,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13162,7 +13133,7 @@
   </sheetPr>
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
@@ -13262,21 +13233,21 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="101.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>578</v>
-      </c>
-      <c r="B3" s="12"/>
+      <c r="A3" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="B3" s="11"/>
       <c r="C3" s="6" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="F3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="I3" s="7" t="n">
         <v>10</v>
@@ -13284,122 +13255,122 @@
       <c r="P3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="13" t="s">
-        <v>582</v>
+      <c r="Q3" s="12" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="4" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F4" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="14" t="s">
-        <v>585</v>
+      <c r="Q4" s="13" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="623.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="5" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="14" t="s">
-        <v>588</v>
+      <c r="Q6" s="13" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H7" s="5" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="39.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K8" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="L8" s="7" t="n">
         <v>7</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>593</v>
+        <v>583</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>584</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="Q8" s="14" t="s">
-        <v>594</v>
+      <c r="Q8" s="13" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K9" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="P9" s="7" t="n">
         <v>7</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I10" s="7" t="n">
         <v>8</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="Q10" s="13" t="s">
-        <v>600</v>
+      <c r="Q10" s="12" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="76.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13408,8 +13379,8 @@
       <c r="P11" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="Q11" s="14" t="s">
-        <v>601</v>
+      <c r="Q11" s="13" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13417,49 +13388,49 @@
         <v>18</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="n">
         <v>10</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="39.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P13" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="Q13" s="14" t="s">
-        <v>603</v>
+      <c r="Q13" s="13" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="P14" s="7" t="n">
         <v>12</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J15" s="7" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="P15" s="7" t="n">
         <v>13</v>
@@ -13467,7 +13438,7 @@
     </row>
     <row r="16" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="n">
         <v>2</v>
@@ -13475,13 +13446,13 @@
       <c r="P16" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="Q16" s="14" t="s">
-        <v>610</v>
+      <c r="Q16" s="13" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L17" s="7" t="n">
         <v>2</v>
@@ -13490,27 +13461,27 @@
       <c r="P17" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="Q17" s="14" t="s">
-        <v>611</v>
+      <c r="Q17" s="13" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N18" s="4" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="P18" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="Q18" s="14" t="s">
-        <v>613</v>
+      <c r="Q18" s="13" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P19" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="Q19" s="15" t="s">
-        <v>614</v>
+      <c r="Q19" s="14" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13600,7 +13571,7 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="topLeft" activeCell="R17" activeCellId="0" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13608,13 +13579,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="5.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="5" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="19.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="5" width="14.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="26.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="14.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="18.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="19.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="21.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="5" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="5" width="41.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="5" width="36.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="5" width="48.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="5" width="38.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="5" width="10.9"/>
@@ -13700,12 +13672,12 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
-        <v>615</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="s">
-        <v>616</v>
+      <c r="A3" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16" t="s">
+        <v>607</v>
       </c>
       <c r="O3" s="4" t="n">
         <v>1</v>
@@ -13714,24 +13686,24 @@
         <v>1</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>619</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>272</v>
+        <v>609</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>268</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>621</v>
+        <v>611</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>612</v>
       </c>
       <c r="O4" s="4" t="n">
         <v>1</v>
@@ -13740,18 +13712,18 @@
         <v>2</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="39.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J5" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>2</v>
@@ -13759,19 +13731,19 @@
       <c r="P5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" s="14" t="s">
-        <v>625</v>
+      <c r="Q5" s="13" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K6" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>626</v>
+        <v>611</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>617</v>
       </c>
       <c r="O6" s="4" t="n">
         <v>2</v>
@@ -13779,8 +13751,8 @@
       <c r="P6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="14" t="s">
-        <v>627</v>
+      <c r="Q6" s="13" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13790,13 +13762,13 @@
       <c r="P7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" s="13" t="s">
-        <v>628</v>
+      <c r="Q7" s="12" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G8" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I8" s="7" t="n">
         <v>6</v>
@@ -13808,12 +13780,12 @@
         <v>6</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G9" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="I9" s="7" t="n">
         <v>6</v>
@@ -13824,8 +13796,8 @@
       <c r="P9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="Q9" s="14" t="s">
-        <v>630</v>
+      <c r="Q9" s="13" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13837,7 +13809,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13845,7 +13817,7 @@
         <v>18</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="O11" s="4" t="n">
         <v>8</v>
@@ -13853,8 +13825,8 @@
       <c r="P11" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="Q11" s="13" t="s">
-        <v>633</v>
+      <c r="Q11" s="12" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13865,7 +13837,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13875,19 +13847,19 @@
       <c r="P13" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="Q13" s="14" t="s">
-        <v>635</v>
+      <c r="Q13" s="13" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H14" s="7" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="O14" s="4" t="n">
         <v>12</v>
@@ -13896,18 +13868,18 @@
         <v>12</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H15" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="O15" s="4" t="n">
         <v>13</v>
@@ -13915,19 +13887,19 @@
       <c r="P15" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="Q15" s="14" t="s">
-        <v>642</v>
+      <c r="Q15" s="13" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H16" s="7" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="O16" s="4" t="n">
         <v>15</v>
@@ -13936,18 +13908,20 @@
         <v>14</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>644</v>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="H17" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>635</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4" t="n">
@@ -13957,11 +13931,9 @@
         <v>15</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>649</v>
-      </c>
+        <v>640</v>
+      </c>
+      <c r="R17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O18" s="4" t="n">
@@ -13970,8 +13942,8 @@
       <c r="P18" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="Q18" s="14" t="s">
-        <v>650</v>
+      <c r="Q18" s="13" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13982,7 +13954,7 @@
         <v>17</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13993,7 +13965,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14004,7 +13976,7 @@
         <v>19</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14015,7 +13987,7 @@
         <v>20</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14026,7 +13998,7 @@
         <v>21</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -14153,10 +14125,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="39.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="B3" s="21"/>
+      <c r="A3" s="20" t="s">
+        <v>647</v>
+      </c>
+      <c r="B3" s="20"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4" t="n">
@@ -14165,16 +14137,16 @@
       <c r="P3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="14" t="s">
-        <v>657</v>
+      <c r="Q3" s="13" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="4" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O4" s="4" t="n">
         <v>1</v>
@@ -14183,7 +14155,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14194,13 +14166,13 @@
         <v>3</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M6" s="4"/>
       <c r="N6" s="4" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="O6" s="4" t="n">
         <v>1</v>
@@ -14208,8 +14180,8 @@
       <c r="P6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="14" t="s">
-        <v>662</v>
+      <c r="Q6" s="13" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14220,7 +14192,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14231,15 +14203,15 @@
         <v>6</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J9" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="O9" s="4" t="n">
         <v>1</v>
@@ -14247,20 +14219,20 @@
       <c r="P9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="Q9" s="14" t="s">
-        <v>666</v>
+      <c r="Q9" s="13" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K10" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="O10" s="4" t="n">
         <v>2</v>
@@ -14269,7 +14241,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14280,21 +14252,21 @@
         <v>9</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K12" s="4" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="L12" s="4" t="n">
         <v>10</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="O12" s="4" t="n">
         <v>2</v>
@@ -14303,7 +14275,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14313,15 +14285,15 @@
       <c r="P13" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="Q13" s="14" t="s">
-        <v>674</v>
+      <c r="Q13" s="13" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="39.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="O14" s="4" t="n">
         <v>2</v>
@@ -14329,19 +14301,19 @@
       <c r="P14" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="Q14" s="14" t="s">
-        <v>676</v>
+      <c r="Q14" s="13" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K15" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="L15" s="4" t="n">
         <v>13</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="O15" s="4" t="n">
         <v>2</v>
@@ -14350,13 +14322,13 @@
         <v>13</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M16" s="4"/>
       <c r="N16" s="4" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="O16" s="4" t="n">
         <v>2</v>
@@ -14365,24 +14337,24 @@
         <v>14</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="4" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>15</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="I17" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="N17" s="22" t="s">
-        <v>683</v>
+      <c r="N17" s="21" t="s">
+        <v>674</v>
       </c>
       <c r="O17" s="4" t="n">
         <v>2</v>
@@ -14391,15 +14363,15 @@
         <v>15</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K18" s="4" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4" t="n">
@@ -14409,7 +14381,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14420,7 +14392,7 @@
         <v>17</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14431,12 +14403,12 @@
         <v>18</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N21" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="O21" s="4" t="n">
         <v>3</v>
@@ -14444,8 +14416,8 @@
       <c r="P21" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="Q21" s="14" t="s">
-        <v>690</v>
+      <c r="Q21" s="13" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14455,19 +14427,19 @@
       <c r="P22" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="Q22" s="14" t="s">
-        <v>691</v>
+      <c r="Q22" s="13" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K23" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="O23" s="4" t="n">
         <v>3</v>
@@ -14476,12 +14448,12 @@
         <v>21</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N24" s="4" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="O24" s="4" t="n">
         <v>3</v>
@@ -14489,13 +14461,13 @@
       <c r="P24" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="Q24" s="14" t="s">
-        <v>696</v>
+      <c r="Q24" s="13" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N25" s="4" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="O25" s="4" t="n">
         <v>4</v>
@@ -14504,12 +14476,12 @@
         <v>23</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K26" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L26" s="4" t="n">
         <v>24</v>
@@ -14521,7 +14493,7 @@
         <v>24</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14532,7 +14504,7 @@
         <v>25</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14543,7 +14515,7 @@
         <v>26</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14554,7 +14526,7 @@
         <v>27</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14565,7 +14537,7 @@
         <v>28</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14576,7 +14548,7 @@
         <v>29</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14587,12 +14559,12 @@
         <v>30</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N33" s="4" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="O33" s="4" t="n">
         <v>6</v>
@@ -14601,12 +14573,12 @@
         <v>31</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N34" s="4" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="O34" s="4" t="n">
         <v>6</v>
@@ -14614,8 +14586,8 @@
       <c r="P34" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="Q34" s="14" t="s">
-        <v>709</v>
+      <c r="Q34" s="13" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14626,7 +14598,7 @@
         <v>33</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14637,7 +14609,7 @@
         <v>34</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14648,7 +14620,7 @@
         <v>35</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
     </row>
   </sheetData>
@@ -14762,11 +14734,11 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
-        <v>713</v>
+      <c r="A3" s="20" t="s">
+        <v>704</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>1</v>
@@ -14778,12 +14750,12 @@
         <v>1</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E4" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>1</v>
@@ -14795,18 +14767,18 @@
         <v>2</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J5" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>4</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>1</v>
@@ -14815,7 +14787,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14825,13 +14797,13 @@
       <c r="P6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="14" t="s">
-        <v>718</v>
+      <c r="Q6" s="13" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H7" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>1</v>
@@ -14843,7 +14815,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14855,15 +14827,15 @@
         <v>6</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K9" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="O9" s="4" t="n">
         <v>3</v>
@@ -14872,18 +14844,18 @@
         <v>7</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K10" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>723</v>
+        <v>201</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>714</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="O10" s="4" t="n">
         <v>3</v>
@@ -14892,7 +14864,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14903,7 +14875,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -15021,20 +14993,20 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
-        <v>727</v>
+      <c r="A3" s="20" t="s">
+        <v>718</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="L3" s="7" t="n">
         <v>1</v>
@@ -15045,19 +15017,19 @@
       <c r="P3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="23" t="s">
-        <v>729</v>
+      <c r="Q3" s="22" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K4" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="O4" s="7" t="n">
         <v>1</v>
@@ -15065,22 +15037,22 @@
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="23" t="s">
-        <v>732</v>
+      <c r="Q4" s="22" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G5" s="7" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="I5" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="O5" s="7" t="n">
         <v>2</v>
@@ -15089,7 +15061,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15100,12 +15072,12 @@
         <v>4</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G7" s="7" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="I7" s="7" t="n">
         <v>5</v>
@@ -15117,15 +15089,15 @@
         <v>5</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="O8" s="7" t="n">
         <v>2</v>
@@ -15134,18 +15106,18 @@
         <v>6</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G9" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I9" s="7" t="n">
         <v>5</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="O9" s="7" t="n">
         <v>2</v>
@@ -15154,18 +15126,18 @@
         <v>7</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H10" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="I10" s="7" t="n">
         <v>6</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="O10" s="7" t="n">
         <v>2</v>
@@ -15174,7 +15146,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15185,7 +15157,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15196,7 +15168,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15207,18 +15179,18 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L14" s="7" t="n">
         <v>12</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="O14" s="7" t="n">
         <v>2</v>
@@ -15227,7 +15199,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15237,8 +15209,8 @@
       <c r="P15" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="Q15" s="13" t="s">
-        <v>749</v>
+      <c r="Q15" s="12" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15249,12 +15221,12 @@
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K17" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L17" s="7" t="n">
         <v>15</v>
@@ -15266,7 +15238,7 @@
         <v>15</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15274,7 +15246,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15282,7 +15254,7 @@
         <v>17</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15489,17 +15461,17 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>754</v>
+      <c r="A3" s="10" t="s">
+        <v>745</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="O3" s="7" t="n">
         <v>1</v>
@@ -15508,18 +15480,18 @@
         <v>1</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H4" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I4" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="O4" s="7" t="n">
         <v>1</v>
@@ -15528,18 +15500,18 @@
         <v>2</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H5" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I5" s="7" t="n">
         <v>4</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="O5" s="7" t="n">
         <v>2</v>
@@ -15548,12 +15520,12 @@
         <v>3</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="5" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="O6" s="7" t="n">
         <v>3</v>
@@ -15562,12 +15534,12 @@
         <v>4</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="5" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="O7" s="7" t="n">
         <v>3</v>
@@ -15576,18 +15548,18 @@
         <v>5</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K8" s="7" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="L8" s="7" t="n">
         <v>6</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="O8" s="7" t="n">
         <v>3</v>
@@ -15596,18 +15568,18 @@
         <v>6</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K9" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L9" s="7" t="n">
         <v>6</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="O9" s="7" t="n">
         <v>3</v>
@@ -15616,7 +15588,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15627,7 +15599,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15757,7 +15729,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15841,200 +15813,200 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J5" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" s="0" t="s">
-        <v>56</v>
+      <c r="Q5" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J6" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" s="0" t="n">
+      <c r="J6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="0" t="s">
-        <v>58</v>
+      <c r="Q6" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K7" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" s="0" t="n">
+      <c r="K7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="Q7" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K8" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="Q8" s="0" t="s">
-        <v>63</v>
+      <c r="Q8" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O9" s="0" t="n">
+      <c r="O9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P9" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="Q9" s="0" t="s">
-        <v>64</v>
+      <c r="Q9" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O10" s="0" t="n">
+      <c r="O10" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="Q10" s="0" t="s">
-        <v>65</v>
+      <c r="Q10" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O11" s="0" t="n">
+      <c r="O11" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P11" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="Q11" s="0" t="s">
-        <v>66</v>
+      <c r="Q11" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O12" s="0" t="n">
+      <c r="O12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P12" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="Q12" s="9" t="s">
-        <v>67</v>
+      <c r="Q12" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O13" s="0" t="n">
+      <c r="O13" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P13" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="Q13" s="0" t="s">
-        <v>68</v>
+      <c r="Q13" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O14" s="0" t="n">
+      <c r="O14" s="5" t="n">
         <v>2</v>
       </c>
       <c r="P14" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="Q14" s="0" t="s">
-        <v>69</v>
+      <c r="Q14" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O15" s="0" t="n">
+      <c r="O15" s="5" t="n">
         <v>3</v>
       </c>
       <c r="P15" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="Q15" s="0" t="s">
-        <v>70</v>
+      <c r="Q15" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16241,20 +16213,20 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>770</v>
+      <c r="A3" s="10" t="s">
+        <v>761</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="O3" s="7" t="n">
         <v>1</v>
@@ -16262,8 +16234,8 @@
       <c r="P3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="13" t="s">
-        <v>772</v>
+      <c r="Q3" s="12" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16273,8 +16245,8 @@
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="13" t="s">
-        <v>773</v>
+      <c r="Q4" s="12" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16285,7 +16257,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16296,7 +16268,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16307,7 +16279,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16318,7 +16290,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16326,13 +16298,13 @@
         <v>18</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O9" s="5" t="n">
         <v>1</v>
@@ -16341,7 +16313,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16578,14 +16550,14 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
-        <v>779</v>
+      <c r="A3" s="23" t="s">
+        <v>770</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F3" s="7" t="n">
         <v>1</v>
@@ -16603,7 +16575,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16620,12 +16592,12 @@
         <v>2</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G5" s="5" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>1</v>
@@ -16637,7 +16609,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16648,7 +16620,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16659,7 +16631,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16670,15 +16642,15 @@
         <v>6</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J9" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="O9" s="5" t="n">
         <v>1</v>
@@ -16687,7 +16659,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16698,15 +16670,15 @@
         <v>8</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="O11" s="5" t="n">
         <v>1</v>
@@ -16715,7 +16687,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16726,7 +16698,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16737,7 +16709,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16955,13 +16927,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>793</v>
+      <c r="A3" s="10" t="s">
+        <v>784</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I3" s="7" t="n">
         <v>1</v>
@@ -16973,14 +16945,14 @@
         <v>1</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="78.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="O4" s="7" t="n">
         <v>1</v>
@@ -16988,8 +16960,8 @@
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="13" t="s">
-        <v>795</v>
+      <c r="Q4" s="12" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16998,7 +16970,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="n">
@@ -17008,7 +16980,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17016,16 +16988,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L6" s="7" t="n">
         <v>9</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="O6" s="7" t="n">
         <v>1</v>
@@ -17034,12 +17006,12 @@
         <v>4</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J7" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="n">
         <v>8</v>
@@ -17051,15 +17023,15 @@
         <v>5</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="O8" s="7" t="n">
         <v>2</v>
@@ -17068,15 +17040,15 @@
         <v>6</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H9" s="5" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="O9" s="7" t="n">
         <v>2</v>
@@ -17085,7 +17057,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17102,7 +17074,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17113,7 +17085,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17265,504 +17237,504 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
-        <v>807</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>808</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>809</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>810</v>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
+      <c r="A2" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>799</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>800</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>801</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7"/>
       <c r="B3" s="4"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="26"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="7" t="s">
-        <v>811</v>
-      </c>
-      <c r="D4" s="26"/>
+        <v>802</v>
+      </c>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="7" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>816</v>
-      </c>
-      <c r="D7" s="26"/>
+        <v>807</v>
+      </c>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>818</v>
-      </c>
-      <c r="D8" s="26"/>
+        <v>809</v>
+      </c>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="D12" s="26"/>
+        <v>815</v>
+      </c>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
       <c r="B18" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>835</v>
-      </c>
-      <c r="D19" s="26"/>
+        <v>826</v>
+      </c>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>836</v>
-      </c>
-      <c r="D20" s="26"/>
+        <v>827</v>
+      </c>
+      <c r="D20" s="25"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>837</v>
-      </c>
-      <c r="D21" s="26"/>
+        <v>828</v>
+      </c>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="26"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="26"/>
+      <c r="D23" s="25"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="26"/>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="26"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="26"/>
+      <c r="D27" s="25"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="26"/>
+      <c r="D28" s="25"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="27" t="s">
-        <v>838</v>
-      </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
+      <c r="A29" s="26" t="s">
+        <v>829</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>560</v>
+        <v>830</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>839</v>
-      </c>
-      <c r="D30" s="26"/>
+        <v>831</v>
+      </c>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>841</v>
-      </c>
-      <c r="D31" s="26"/>
+        <v>833</v>
+      </c>
+      <c r="D31" s="25"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>842</v>
-      </c>
-      <c r="D32" s="26"/>
+        <v>834</v>
+      </c>
+      <c r="D32" s="25"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>843</v>
-      </c>
-      <c r="D33" s="26"/>
+        <v>835</v>
+      </c>
+      <c r="D33" s="25"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="D34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="D35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="D36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="26"/>
+      <c r="D37" s="25"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>850</v>
-      </c>
-      <c r="D39" s="26"/>
+        <v>842</v>
+      </c>
+      <c r="D39" s="25"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>851</v>
-      </c>
-      <c r="D40" s="26"/>
+        <v>843</v>
+      </c>
+      <c r="D40" s="25"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="D41" s="26"/>
+        <v>844</v>
+      </c>
+      <c r="D41" s="25"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="26"/>
+      <c r="D42" s="25"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>854</v>
-      </c>
-      <c r="D43" s="26"/>
+        <v>846</v>
+      </c>
+      <c r="D43" s="25"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>855</v>
-      </c>
-      <c r="D44" s="26"/>
+        <v>847</v>
+      </c>
+      <c r="D44" s="25"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>857</v>
-      </c>
-      <c r="D45" s="26"/>
+        <v>849</v>
+      </c>
+      <c r="D45" s="25"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="25" t="s">
-        <v>858</v>
-      </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="25"/>
-      <c r="V46" s="25"/>
-      <c r="W46" s="25"/>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="25"/>
-      <c r="Z46" s="25"/>
-      <c r="AA46" s="25"/>
+      <c r="A46" s="24" t="s">
+        <v>850</v>
+      </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="24"/>
+      <c r="V46" s="24"/>
+      <c r="W46" s="24"/>
+      <c r="X46" s="24"/>
+      <c r="Y46" s="24"/>
+      <c r="Z46" s="24"/>
+      <c r="AA46" s="24"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D48" s="26"/>
+      <c r="D48" s="25"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>861</v>
-      </c>
-      <c r="D49" s="26"/>
+        <v>853</v>
+      </c>
+      <c r="D49" s="25"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7"/>
@@ -17770,137 +17742,137 @@
         <v>22</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>862</v>
-      </c>
-      <c r="D50" s="26"/>
+        <v>854</v>
+      </c>
+      <c r="D50" s="25"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>863</v>
-      </c>
-      <c r="D51" s="26"/>
+        <v>855</v>
+      </c>
+      <c r="D51" s="25"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>864</v>
-      </c>
-      <c r="D52" s="26"/>
+        <v>856</v>
+      </c>
+      <c r="D52" s="25"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>865</v>
-      </c>
-      <c r="D53" s="26"/>
+        <v>857</v>
+      </c>
+      <c r="D53" s="25"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="D55" s="26"/>
+        <v>860</v>
+      </c>
+      <c r="D55" s="25"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>869</v>
-      </c>
-      <c r="D56" s="26"/>
+        <v>861</v>
+      </c>
+      <c r="D56" s="25"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>870</v>
-      </c>
-      <c r="D57" s="26"/>
+        <v>862</v>
+      </c>
+      <c r="D57" s="25"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>871</v>
-      </c>
-      <c r="D58" s="26"/>
+        <v>863</v>
+      </c>
+      <c r="D58" s="25"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>872</v>
-      </c>
-      <c r="D59" s="26"/>
+        <v>864</v>
+      </c>
+      <c r="D59" s="25"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D60" s="26"/>
+      <c r="D60" s="25"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D62" s="26"/>
+      <c r="D62" s="25"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D63" s="26"/>
+      <c r="D63" s="25"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="D64" s="26"/>
+        <v>867</v>
+      </c>
+      <c r="D64" s="25"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>876</v>
-      </c>
-      <c r="D65" s="26"/>
+        <v>868</v>
+      </c>
+      <c r="D65" s="25"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
     </row>
   </sheetData>
@@ -17927,7 +17899,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q8" activeCellId="0" sqref="Q8"/>
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18012,10 +17984,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
@@ -18026,27 +17998,25 @@
       <c r="I3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="R3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G4" s="5" t="s">
@@ -18062,7 +18032,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18073,7 +18043,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18084,7 +18054,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18095,7 +18065,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18106,7 +18076,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18261,7 +18231,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18346,22 +18316,20 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>84</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D3" s="5"/>
       <c r="F3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L3" s="5" t="n">
         <v>2</v>
@@ -18373,33 +18341,31 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>88</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="R3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>4</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O4" s="5" t="n">
         <v>1</v>
@@ -18408,7 +18374,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18416,7 +18382,7 @@
         <v>36</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O5" s="5" t="n">
         <v>2</v>
@@ -18425,12 +18391,12 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K6" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="L6" s="5" t="n">
         <v>6</v>
@@ -18442,12 +18408,12 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N7" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="O7" s="5" t="n">
         <v>2</v>
@@ -18456,7 +18422,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18467,7 +18433,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18707,51 +18673,51 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="O3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O4" s="5" t="n">
         <v>1</v>
@@ -18760,12 +18726,12 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>7</v>
@@ -18777,7 +18743,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18788,7 +18754,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18799,7 +18765,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18810,7 +18776,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18821,7 +18787,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19056,16 +19022,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>1</v>
@@ -19074,7 +19040,7 @@
         <v>30</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="O3" s="5" t="n">
         <v>1</v>
@@ -19083,24 +19049,24 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G4" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O4" s="5" t="n">
         <v>1</v>
@@ -19109,32 +19075,32 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K5" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K6" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>4</v>
@@ -19387,7 +19353,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>17</v>
@@ -19408,7 +19374,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19425,7 +19391,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19439,13 +19405,13 @@
         <v>32</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="O5" s="5" t="n">
         <v>1</v>
@@ -19454,18 +19420,18 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K6" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L6" s="5" t="n">
         <v>3</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="O6" s="5" t="n">
         <v>1</v>
@@ -19474,15 +19440,15 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J7" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="O7" s="5" t="n">
         <v>1</v>
@@ -19491,7 +19457,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19508,7 +19474,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19516,10 +19482,10 @@
         <v>23</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="O9" s="5" t="n">
         <v>1</v>
@@ -19528,18 +19494,18 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K10" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L10" s="5" t="n">
         <v>10</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="O10" s="5" t="n">
         <v>1</v>
@@ -19548,7 +19514,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19559,7 +19525,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19570,15 +19536,15 @@
         <v>10</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K13" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="O13" s="5" t="n">
         <v>2</v>
@@ -19587,7 +19553,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19598,7 +19564,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19609,7 +19575,7 @@
         <v>13</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/v2/AIID_Technical_Taxonomies_v2.xlsx
+++ b/v2/AIID_Technical_Taxonomies_v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="25"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="40"/>
   </bookViews>
   <sheets>
     <sheet name="Incident 146 breakdown" sheetId="1" state="visible" r:id="rId2"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="870">
   <si>
     <t xml:space="preserve">AI Tasks</t>
   </si>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">https://incidentdatabase.ai/cite/154#r1512</t>
   </si>
   <si>
-    <t xml:space="preserve">Risk Assessment</t>
+    <t xml:space="preserve">Recidivism Prediction</t>
   </si>
   <si>
     <t xml:space="preserve">In a report issued days before Christmas in 2021, the department said its algorithmic tool for assessing the risk that a person in prison would return to crime produced uneven results. </t>
@@ -2328,9 +2328,6 @@
   </si>
   <si>
     <t xml:space="preserve">But because of the price forecasting volatility, the company had to reconsider what the business would look like when it had grown larger, a size it needed to become in order to be consistently profitable, Barton and Parker wrote.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequential Analysis</t>
   </si>
   <si>
     <t xml:space="preserve">11</t>
@@ -2710,6 +2707,9 @@
     <t xml:space="preserve">Automatic retrieval and serving of data to a user based on an explicitly supplied query.</t>
   </si>
   <si>
+    <t xml:space="preserve">Sequential Analysis</t>
+  </si>
+  <si>
     <t xml:space="preserve">The task of producing predictions based on a history of multiple data points</t>
   </si>
   <si>
@@ -2808,7 +2808,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m&quot;, &quot;d"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2844,12 +2844,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2998,7 +2992,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3035,15 +3029,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3055,15 +3045,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3075,11 +3065,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3087,11 +3077,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3196,7 +3186,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+      <selection pane="topLeft" activeCell="J4" activeCellId="1" sqref="G5:I5 J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3581,7 +3571,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R5" activeCellId="0" sqref="R5"/>
+      <selection pane="topLeft" activeCell="R5" activeCellId="1" sqref="G5:I5 R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3691,10 +3681,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -3718,7 +3708,7 @@
       <c r="Q4" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="R4" s="0" t="s">
+      <c r="R4" s="5" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3942,7 +3932,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="G5:I5 D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4306,7 +4296,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+      <selection pane="topLeft" activeCell="J11" activeCellId="1" sqref="G5:I5 J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4476,7 +4466,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="5" t="s">
         <v>57</v>
       </c>
       <c r="L7" s="5" t="n">
@@ -4709,7 +4699,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
+      <selection pane="topLeft" activeCell="L20" activeCellId="1" sqref="G5:I5 L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5187,7 +5177,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N24" activeCellId="0" sqref="N24"/>
+      <selection pane="topLeft" activeCell="N24" activeCellId="1" sqref="G5:I5 N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5542,7 +5532,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="1" sqref="G5:I5 H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5900,7 +5890,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
+      <selection pane="topLeft" activeCell="K12" activeCellId="1" sqref="G5:I5 K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6336,7 +6326,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+      <selection pane="topLeft" activeCell="K9" activeCellId="1" sqref="G5:I5 K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6691,7 +6681,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G36" activeCellId="0" sqref="G36"/>
+      <selection pane="topLeft" activeCell="G36" activeCellId="1" sqref="G5:I5 G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7079,7 +7069,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N15" activeCellId="0" sqref="N15"/>
+      <selection pane="topLeft" activeCell="N15" activeCellId="1" sqref="G5:I5 N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7413,7 +7403,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="G5:I5 H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7719,7 +7709,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R3" activeCellId="0" sqref="R3"/>
+      <selection pane="topLeft" activeCell="R3" activeCellId="1" sqref="G5:I5 R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7847,7 +7837,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="5" t="s">
@@ -8112,7 +8102,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+      <selection pane="topLeft" activeCell="F28" activeCellId="1" sqref="G5:I5 F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8431,7 +8421,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+      <selection pane="topLeft" activeCell="I16" activeCellId="1" sqref="G5:I5 I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8795,7 +8785,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
+      <selection pane="topLeft" activeCell="K6" activeCellId="1" sqref="G5:I5 K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9096,7 +9086,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="G5:I5 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9488,7 +9478,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
+      <selection pane="topLeft" activeCell="M8" activeCellId="1" sqref="G5:I5 M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9854,8 +9844,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J13" activeCellId="1" sqref="G5:I5 J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10282,7 +10272,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="1" sqref="G5:I5 G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10715,7 +10705,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q6" activeCellId="0" sqref="Q6"/>
+      <selection pane="topLeft" activeCell="Q6" activeCellId="1" sqref="G5:I5 Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11037,7 +11027,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K27" activeCellId="0" sqref="K27"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="1" sqref="G5:I5 E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11386,7 +11376,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="G5:I5 R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11647,8 +11637,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="G5:I5 D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11864,7 +11854,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K11" s="0" t="s">
+      <c r="K11" s="5" t="s">
         <v>132</v>
       </c>
       <c r="P11" s="7" t="n">
@@ -11872,13 +11862,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J12" s="0" t="s">
+      <c r="J12" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="M12" s="0" t="s">
+      <c r="M12" s="5" t="s">
         <v>512</v>
       </c>
       <c r="P12" s="7" t="n">
@@ -12017,7 +12007,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="1" sqref="G5:I5 G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12429,7 +12419,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+      <selection pane="topLeft" activeCell="K10" activeCellId="1" sqref="G5:I5 K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12775,7 +12765,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="1" sqref="G5:I5 C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12864,7 +12854,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>551</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -13134,7 +13124,7 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="G5:I5 R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13233,10 +13223,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="101.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="6" t="s">
         <v>570</v>
       </c>
@@ -13255,7 +13245,7 @@
       <c r="P3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="11" t="s">
         <v>573</v>
       </c>
     </row>
@@ -13272,7 +13262,7 @@
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="12" t="s">
         <v>576</v>
       </c>
     </row>
@@ -13294,7 +13284,7 @@
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="12" t="s">
         <v>579</v>
       </c>
     </row>
@@ -13322,13 +13312,13 @@
       <c r="M8" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="13" t="s">
         <v>584</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="Q8" s="12" t="s">
         <v>585</v>
       </c>
     </row>
@@ -13369,7 +13359,7 @@
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="Q10" s="12" t="s">
+      <c r="Q10" s="11" t="s">
         <v>591</v>
       </c>
     </row>
@@ -13379,7 +13369,7 @@
       <c r="P11" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="Q11" s="13" t="s">
+      <c r="Q11" s="12" t="s">
         <v>592</v>
       </c>
     </row>
@@ -13401,7 +13391,7 @@
       <c r="P13" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="Q13" s="13" t="s">
+      <c r="Q13" s="12" t="s">
         <v>594</v>
       </c>
     </row>
@@ -13446,7 +13436,7 @@
       <c r="P16" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="Q16" s="12" t="s">
         <v>601</v>
       </c>
     </row>
@@ -13461,7 +13451,7 @@
       <c r="P17" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="Q17" s="13" t="s">
+      <c r="Q17" s="12" t="s">
         <v>602</v>
       </c>
     </row>
@@ -13472,7 +13462,7 @@
       <c r="P18" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="Q18" s="13" t="s">
+      <c r="Q18" s="12" t="s">
         <v>604</v>
       </c>
     </row>
@@ -13480,7 +13470,7 @@
       <c r="P19" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="Q19" s="14" t="s">
+      <c r="Q19" s="13" t="s">
         <v>605</v>
       </c>
     </row>
@@ -13571,7 +13561,7 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R17" activeCellId="0" sqref="R17"/>
+      <selection pane="topLeft" activeCell="R17" activeCellId="1" sqref="G5:I5 R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13672,11 +13662,11 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15" t="s">
         <v>607</v>
       </c>
       <c r="O3" s="4" t="n">
@@ -13693,16 +13683,16 @@
       <c r="D4" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>610</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="17" t="s">
         <v>268</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="11" t="s">
         <v>612</v>
       </c>
       <c r="O4" s="4" t="n">
@@ -13731,7 +13721,7 @@
       <c r="P5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="12" t="s">
         <v>616</v>
       </c>
     </row>
@@ -13742,7 +13732,7 @@
       <c r="L6" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="18" t="s">
         <v>617</v>
       </c>
       <c r="O6" s="4" t="n">
@@ -13751,7 +13741,7 @@
       <c r="P6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="12" t="s">
         <v>618</v>
       </c>
     </row>
@@ -13762,7 +13752,7 @@
       <c r="P7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="11" t="s">
         <v>619</v>
       </c>
     </row>
@@ -13796,7 +13786,7 @@
       <c r="P9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q9" s="12" t="s">
         <v>621</v>
       </c>
     </row>
@@ -13825,7 +13815,7 @@
       <c r="P11" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="Q11" s="12" t="s">
+      <c r="Q11" s="11" t="s">
         <v>624</v>
       </c>
     </row>
@@ -13847,7 +13837,7 @@
       <c r="P13" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="Q13" s="13" t="s">
+      <c r="Q13" s="12" t="s">
         <v>626</v>
       </c>
     </row>
@@ -13887,7 +13877,7 @@
       <c r="P15" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="Q15" s="13" t="s">
+      <c r="Q15" s="12" t="s">
         <v>633</v>
       </c>
     </row>
@@ -13912,8 +13902,6 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
       <c r="H17" s="7" t="s">
         <v>638</v>
       </c>
@@ -13942,7 +13930,7 @@
       <c r="P18" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="Q18" s="13" t="s">
+      <c r="Q18" s="12" t="s">
         <v>641</v>
       </c>
     </row>
@@ -14028,7 +14016,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
+      <selection pane="topLeft" activeCell="K24" activeCellId="1" sqref="G5:I5 K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14125,10 +14113,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="39.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>647</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="19"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4" t="n">
@@ -14137,7 +14125,7 @@
       <c r="P3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="12" t="s">
         <v>648</v>
       </c>
     </row>
@@ -14180,7 +14168,7 @@
       <c r="P6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="12" t="s">
         <v>653</v>
       </c>
     </row>
@@ -14219,7 +14207,7 @@
       <c r="P9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q9" s="12" t="s">
         <v>657</v>
       </c>
     </row>
@@ -14285,7 +14273,7 @@
       <c r="P13" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="Q13" s="13" t="s">
+      <c r="Q13" s="12" t="s">
         <v>665</v>
       </c>
     </row>
@@ -14301,7 +14289,7 @@
       <c r="P14" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="Q14" s="13" t="s">
+      <c r="Q14" s="12" t="s">
         <v>667</v>
       </c>
     </row>
@@ -14353,7 +14341,7 @@
       <c r="I17" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="N17" s="21" t="s">
+      <c r="N17" s="20" t="s">
         <v>674</v>
       </c>
       <c r="O17" s="4" t="n">
@@ -14416,7 +14404,7 @@
       <c r="P21" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="Q21" s="13" t="s">
+      <c r="Q21" s="12" t="s">
         <v>681</v>
       </c>
     </row>
@@ -14427,7 +14415,7 @@
       <c r="P22" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="Q22" s="13" t="s">
+      <c r="Q22" s="12" t="s">
         <v>682</v>
       </c>
     </row>
@@ -14461,7 +14449,7 @@
       <c r="P24" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="Q24" s="13" t="s">
+      <c r="Q24" s="12" t="s">
         <v>687</v>
       </c>
     </row>
@@ -14586,7 +14574,7 @@
       <c r="P34" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="Q34" s="13" t="s">
+      <c r="Q34" s="12" t="s">
         <v>700</v>
       </c>
     </row>
@@ -14650,7 +14638,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+      <selection pane="topLeft" activeCell="K10" activeCellId="1" sqref="G5:I5 K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14734,7 +14722,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>704</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -14797,7 +14785,7 @@
       <c r="P6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="12" t="s">
         <v>709</v>
       </c>
     </row>
@@ -14851,7 +14839,7 @@
       <c r="K10" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="11" t="s">
         <v>714</v>
       </c>
       <c r="N10" s="4" t="s">
@@ -14905,7 +14893,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="G5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14993,7 +14981,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>718</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -15017,7 +15005,7 @@
       <c r="P3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="Q3" s="21" t="s">
         <v>720</v>
       </c>
     </row>
@@ -15037,22 +15025,18 @@
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="21" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G5" s="7" t="s">
-        <v>724</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="G5" s="7"/>
+      <c r="I5" s="7"/>
       <c r="K5" s="7" t="s">
         <v>81</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="O5" s="7" t="n">
         <v>2</v>
@@ -15061,7 +15045,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15072,7 +15056,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15089,7 +15073,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15097,7 +15081,7 @@
         <v>116</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="O8" s="7" t="n">
         <v>2</v>
@@ -15106,7 +15090,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15117,7 +15101,7 @@
         <v>5</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="O9" s="7" t="n">
         <v>2</v>
@@ -15126,7 +15110,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15137,7 +15121,7 @@
         <v>6</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="O10" s="7" t="n">
         <v>2</v>
@@ -15146,7 +15130,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15157,7 +15141,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15168,7 +15152,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15179,7 +15163,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15190,7 +15174,7 @@
         <v>12</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O14" s="7" t="n">
         <v>2</v>
@@ -15199,7 +15183,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15209,8 +15193,8 @@
       <c r="P15" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="Q15" s="12" t="s">
-        <v>740</v>
+      <c r="Q15" s="11" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15221,7 +15205,7 @@
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15238,7 +15222,7 @@
         <v>15</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15246,7 +15230,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15254,7 +15238,7 @@
         <v>17</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15374,7 +15358,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="topLeft" activeCell="R1" activeCellId="1" sqref="G5:I5 R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15461,26 +15445,26 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>745</v>
+      <c r="A3" s="9" t="s">
+        <v>744</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>104</v>
       </c>
       <c r="L3" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="O3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="7" t="s">
         <v>747</v>
-      </c>
-      <c r="O3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15491,7 +15475,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="O4" s="7" t="n">
         <v>1</v>
@@ -15500,7 +15484,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15511,7 +15495,7 @@
         <v>4</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O5" s="7" t="n">
         <v>2</v>
@@ -15520,7 +15504,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15534,12 +15518,12 @@
         <v>4</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="O7" s="7" t="n">
         <v>3</v>
@@ -15548,7 +15532,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15559,7 +15543,7 @@
         <v>6</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O8" s="7" t="n">
         <v>3</v>
@@ -15568,7 +15552,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15579,7 +15563,7 @@
         <v>6</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="O9" s="7" t="n">
         <v>3</v>
@@ -15588,7 +15572,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15599,7 +15583,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15729,7 +15713,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="1" sqref="G5:I5 F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16126,7 +16110,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="topLeft" activeCell="R1" activeCellId="1" sqref="G5:I5 R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16213,29 +16197,29 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>761</v>
+      <c r="A3" s="9" t="s">
+        <v>760</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>205</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>507</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="O3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="11" t="s">
         <v>762</v>
-      </c>
-      <c r="O3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16245,8 +16229,8 @@
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="12" t="s">
-        <v>764</v>
+      <c r="Q4" s="11" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16257,7 +16241,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16268,7 +16252,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16279,7 +16263,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16290,7 +16274,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16313,7 +16297,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16465,8 +16449,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16550,11 +16534,11 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
+        <v>769</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>770</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>771</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>70</v>
@@ -16575,7 +16559,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16592,16 +16576,12 @@
         <v>2</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G5" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="I5" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="G5" s="5"/>
+      <c r="I5" s="5"/>
       <c r="O5" s="5" t="n">
         <v>1</v>
       </c>
@@ -16609,7 +16589,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16620,7 +16600,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16631,7 +16611,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16642,7 +16622,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16659,7 +16639,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16670,7 +16650,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16678,7 +16658,7 @@
         <v>162</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="O11" s="5" t="n">
         <v>1</v>
@@ -16687,7 +16667,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16698,7 +16678,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16709,7 +16689,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16839,7 +16819,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="topLeft" activeCell="R1" activeCellId="1" sqref="G5:I5 R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16927,8 +16907,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>784</v>
+      <c r="A3" s="9" t="s">
+        <v>783</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -16945,7 +16925,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="78.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16960,8 +16940,8 @@
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="12" t="s">
-        <v>786</v>
+      <c r="Q4" s="11" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16970,7 +16950,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="n">
@@ -16980,7 +16960,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16994,10 +16974,10 @@
         <v>9</v>
       </c>
       <c r="M6" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="N6" s="7" t="s">
         <v>789</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>790</v>
       </c>
       <c r="O6" s="7" t="n">
         <v>1</v>
@@ -17006,7 +16986,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17023,7 +17003,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17031,7 +17011,7 @@
         <v>170</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="O8" s="7" t="n">
         <v>2</v>
@@ -17040,7 +17020,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17048,7 +17028,7 @@
         <v>507</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="O9" s="7" t="n">
         <v>2</v>
@@ -17057,7 +17037,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17074,7 +17054,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17085,7 +17065,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17225,7 +17205,7 @@
   <dimension ref="A2:AA68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
+      <selection pane="topLeft" activeCell="C39" activeCellId="1" sqref="G5:I5 C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17237,47 +17217,47 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
+        <v>797</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>798</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>799</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>800</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>801</v>
-      </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7"/>
       <c r="B3" s="4"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="25"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
@@ -17285,9 +17265,9 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="7" t="s">
-        <v>802</v>
-      </c>
-      <c r="D4" s="25"/>
+        <v>801</v>
+      </c>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
@@ -17295,7 +17275,7 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -17304,13 +17284,13 @@
         <v>268</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="7" t="s">
         <v>805</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17319,55 +17299,55 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="D7" s="25"/>
+        <v>806</v>
+      </c>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>582</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>809</v>
-      </c>
-      <c r="D8" s="25"/>
+        <v>808</v>
+      </c>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>598</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>121</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>813</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17375,47 +17355,47 @@
         <v>142</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="D12" s="25"/>
+        <v>814</v>
+      </c>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>201</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>816</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>818</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>216</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17424,22 +17404,22 @@
         <v>162</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>180</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>822</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17448,10 +17428,10 @@
         <v>104</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>824</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17459,155 +17439,155 @@
         <v>19</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>826</v>
-      </c>
-      <c r="D19" s="25"/>
+        <v>825</v>
+      </c>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>827</v>
-      </c>
-      <c r="D20" s="25"/>
+        <v>826</v>
+      </c>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>828</v>
-      </c>
-      <c r="D21" s="25"/>
+        <v>827</v>
+      </c>
+      <c r="D21" s="24"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="25"/>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="25"/>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="25"/>
+      <c r="D25" s="24"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="25"/>
+      <c r="D26" s="24"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="25"/>
+      <c r="D27" s="24"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="25"/>
+      <c r="D28" s="24"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="26" t="s">
-        <v>829</v>
-      </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="26"/>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="26"/>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="26"/>
+      <c r="A29" s="25" t="s">
+        <v>828</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>831</v>
-      </c>
-      <c r="D30" s="25"/>
+      <c r="D30" s="24"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>833</v>
-      </c>
-      <c r="D31" s="25"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>834</v>
-      </c>
-      <c r="D32" s="25"/>
+        <v>833</v>
+      </c>
+      <c r="D32" s="24"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
         <v>609</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>835</v>
-      </c>
-      <c r="D33" s="25"/>
+        <v>834</v>
+      </c>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>836</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>837</v>
       </c>
       <c r="D34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>571</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>574</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="25"/>
+      <c r="D37" s="24"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>724</v>
+        <v>839</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>840</v>
@@ -17620,11 +17600,11 @@
       <c r="A39" s="7" t="s">
         <v>842</v>
       </c>
-      <c r="D39" s="25"/>
+      <c r="D39" s="24"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>154</v>
@@ -17632,11 +17612,11 @@
       <c r="C40" s="7" t="s">
         <v>843</v>
       </c>
-      <c r="D40" s="25"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>507</v>
@@ -17644,10 +17624,10 @@
       <c r="C41" s="7" t="s">
         <v>844</v>
       </c>
-      <c r="D41" s="25"/>
+      <c r="D41" s="24"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="25"/>
+      <c r="D42" s="24"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
@@ -17656,11 +17636,11 @@
       <c r="C43" s="7" t="s">
         <v>846</v>
       </c>
-      <c r="D43" s="25"/>
+      <c r="D43" s="24"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>390</v>
@@ -17668,11 +17648,11 @@
       <c r="C44" s="7" t="s">
         <v>847</v>
       </c>
-      <c r="D44" s="25"/>
+      <c r="D44" s="24"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>848</v>
@@ -17680,38 +17660,38 @@
       <c r="C45" s="7" t="s">
         <v>849</v>
       </c>
-      <c r="D45" s="25"/>
+      <c r="D45" s="24"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="23" t="s">
         <v>850</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="24"/>
-      <c r="S46" s="24"/>
-      <c r="T46" s="24"/>
-      <c r="U46" s="24"/>
-      <c r="V46" s="24"/>
-      <c r="W46" s="24"/>
-      <c r="X46" s="24"/>
-      <c r="Y46" s="24"/>
-      <c r="Z46" s="24"/>
-      <c r="AA46" s="24"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="23"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="23"/>
+      <c r="U46" s="23"/>
+      <c r="V46" s="23"/>
+      <c r="W46" s="23"/>
+      <c r="X46" s="23"/>
+      <c r="Y46" s="23"/>
+      <c r="Z46" s="23"/>
+      <c r="AA46" s="23"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
@@ -17725,7 +17705,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D48" s="25"/>
+      <c r="D48" s="24"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
@@ -17734,7 +17714,7 @@
       <c r="C49" s="7" t="s">
         <v>853</v>
       </c>
-      <c r="D49" s="25"/>
+      <c r="D49" s="24"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7"/>
@@ -17744,11 +17724,11 @@
       <c r="C50" s="7" t="s">
         <v>854</v>
       </c>
-      <c r="D50" s="25"/>
+      <c r="D50" s="24"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>263</v>
@@ -17756,11 +17736,11 @@
       <c r="C51" s="7" t="s">
         <v>855</v>
       </c>
-      <c r="D51" s="25"/>
+      <c r="D51" s="24"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>518</v>
@@ -17768,7 +17748,7 @@
       <c r="C52" s="7" t="s">
         <v>856</v>
       </c>
-      <c r="D52" s="25"/>
+      <c r="D52" s="24"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
@@ -17777,7 +17757,7 @@
       <c r="C53" s="7" t="s">
         <v>857</v>
       </c>
-      <c r="D53" s="25"/>
+      <c r="D53" s="24"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
@@ -17797,7 +17777,7 @@
       <c r="C55" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="D55" s="25"/>
+      <c r="D55" s="24"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
@@ -17806,7 +17786,7 @@
       <c r="C56" s="7" t="s">
         <v>861</v>
       </c>
-      <c r="D56" s="25"/>
+      <c r="D56" s="24"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
@@ -17815,7 +17795,7 @@
       <c r="C57" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="D57" s="25"/>
+      <c r="D57" s="24"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
@@ -17824,7 +17804,7 @@
       <c r="C58" s="7" t="s">
         <v>863</v>
       </c>
-      <c r="D58" s="25"/>
+      <c r="D58" s="24"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
@@ -17833,10 +17813,10 @@
       <c r="C59" s="7" t="s">
         <v>864</v>
       </c>
-      <c r="D59" s="25"/>
+      <c r="D59" s="24"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D60" s="25"/>
+      <c r="D60" s="24"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
@@ -17850,22 +17830,22 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D62" s="25"/>
+      <c r="D62" s="24"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D63" s="25"/>
+      <c r="D63" s="24"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="D64" s="25"/>
+      <c r="D64" s="24"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
         <v>868</v>
       </c>
-      <c r="D65" s="25"/>
+      <c r="D65" s="24"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7"/>
@@ -17899,7 +17879,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+      <selection pane="topLeft" activeCell="K4" activeCellId="1" sqref="G5:I5 K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18231,7 +18211,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="G5:I5 F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18588,7 +18568,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="1" sqref="G5:I5 H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18937,7 +18917,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
+      <selection pane="topLeft" activeCell="L7" activeCellId="1" sqref="G5:I5 L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19268,7 +19248,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+      <selection pane="topLeft" activeCell="K8" activeCellId="1" sqref="G5:I5 K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/v2/AIID_Technical_Taxonomies_v2.xlsx
+++ b/v2/AIID_Technical_Taxonomies_v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="40"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Incident 146 breakdown" sheetId="1" state="visible" r:id="rId2"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="872">
   <si>
     <t xml:space="preserve">AI Tasks</t>
   </si>
@@ -617,7 +617,7 @@
     <t xml:space="preserve">After my appeal was denied, I went live on my new TikTok account, one of the trolls entered the live and reported me. I was banned from livestreaming for 24hours for “serious pornography.” I was wearing a tanktop.</t>
   </si>
   <si>
-    <t xml:space="preserve">Conceptual Data Handling</t>
+    <t xml:space="preserve">Diverse Data</t>
   </si>
   <si>
     <t xml:space="preserve">Real people—not just computer programs— should be involved before accounts are deleted. </t>
@@ -878,7 +878,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Learning Dataset Imbalance</t>
+    <t xml:space="preserve">Dataset Imbalance</t>
   </si>
   <si>
     <t xml:space="preserve">While the app’s algorithm was able to correctly identify pictures of a “graduation,” “skyscrapers,” and “airplanes,” it labeled photos of Alcine and a female friend as gorillas.</t>
@@ -2599,6 +2599,9 @@
     <t xml:space="preserve">Cases where the training dataset includes instances having unexpected content, labels or characteristics, willingly / maliciously misconfigured.</t>
   </si>
   <si>
+    <t xml:space="preserve">Learning Dataset Imbalance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Training / Finetuning</t>
   </si>
   <si>
@@ -2783,6 +2786,9 @@
   </si>
   <si>
     <t xml:space="preserve">The use of image processing and computer vision techniques in order to extract text from images, document pdfs and other visual media.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceptual Data Handling</t>
   </si>
   <si>
     <t xml:space="preserve">The use of conceptual / categorical data as learning inputs, rather than numeric or primitive (e.g. image, audio, text, etc.).</t>
@@ -2808,7 +2814,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m&quot;, &quot;d"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2844,6 +2850,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF151413"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2992,7 +3004,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3029,11 +3041,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3045,15 +3061,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3061,15 +3077,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3077,11 +3093,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3185,8 +3201,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="1" sqref="G5:I5 J4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3570,8 +3586,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R5" activeCellId="1" sqref="G5:I5 R5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3931,8 +3947,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="G5:I5 D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4295,8 +4311,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="1" sqref="G5:I5 J11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4698,8 +4714,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L20" activeCellId="1" sqref="G5:I5 L20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5176,8 +5192,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N24" activeCellId="1" sqref="G5:I5 N24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N24" activeCellId="0" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5531,8 +5547,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="1" sqref="G5:I5 H11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5692,8 +5708,8 @@
         <v>267</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K7" s="5" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K7" s="9" t="s">
         <v>268</v>
       </c>
       <c r="L7" s="5" t="n">
@@ -5889,8 +5905,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K12" activeCellId="1" sqref="G5:I5 K12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6325,8 +6341,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="1" sqref="G5:I5 K9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6680,8 +6696,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G36" activeCellId="1" sqref="G5:I5 G36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6806,8 +6822,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J6" s="5" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J6" s="9" t="s">
         <v>268</v>
       </c>
       <c r="L6" s="5" t="n">
@@ -7068,8 +7084,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N15" activeCellId="1" sqref="G5:I5 N15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N15" activeCellId="0" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7402,8 +7418,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="G5:I5 H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7708,8 +7724,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R3" activeCellId="1" sqref="G5:I5 R3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7836,11 +7852,11 @@
         <v>349</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="9" t="s">
         <v>268</v>
       </c>
       <c r="L5" s="5" t="s">
@@ -8101,8 +8117,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="1" sqref="G5:I5 F28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8420,8 +8436,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="1" sqref="G5:I5 I16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8784,8 +8800,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K6" activeCellId="1" sqref="G5:I5 K6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9085,8 +9101,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="G5:I5 A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9477,8 +9493,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M8" activeCellId="1" sqref="G5:I5 M8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9844,8 +9860,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="1" sqref="G5:I5 J13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10271,8 +10287,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="1" sqref="G5:I5 G13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10510,8 +10526,8 @@
         <v>469</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K13" s="5" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K13" s="9" t="s">
         <v>268</v>
       </c>
       <c r="L13" s="5" t="n">
@@ -10704,8 +10720,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q6" activeCellId="1" sqref="G5:I5 Q6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11026,8 +11042,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="1" sqref="G5:I5 E14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11375,8 +11391,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="G5:I5 R2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11637,8 +11653,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="G5:I5 D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11790,14 +11806,14 @@
         <v>506</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H7" s="5" t="s">
         <v>507</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="9" t="s">
         <v>268</v>
       </c>
       <c r="L7" s="5" t="n">
@@ -12006,8 +12022,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="1" sqref="G5:I5 G6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12418,8 +12434,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="1" sqref="G5:I5 K10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12536,8 +12552,8 @@
         <v>543</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K5" s="5" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K5" s="9" t="s">
         <v>268</v>
       </c>
       <c r="L5" s="5" t="n">
@@ -12764,8 +12780,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="1" sqref="G5:I5 C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12854,7 +12870,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>551</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -13123,8 +13139,8 @@
   </sheetPr>
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="G5:I5 R2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13223,10 +13239,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="101.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="6" t="s">
         <v>570</v>
       </c>
@@ -13245,7 +13261,7 @@
       <c r="P3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="12" t="s">
         <v>573</v>
       </c>
     </row>
@@ -13262,7 +13278,7 @@
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="13" t="s">
         <v>576</v>
       </c>
     </row>
@@ -13284,7 +13300,7 @@
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="13" t="s">
         <v>579</v>
       </c>
     </row>
@@ -13312,13 +13328,13 @@
       <c r="M8" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="14" t="s">
         <v>584</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="Q8" s="13" t="s">
         <v>585</v>
       </c>
     </row>
@@ -13359,7 +13375,7 @@
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="12" t="s">
         <v>591</v>
       </c>
     </row>
@@ -13369,7 +13385,7 @@
       <c r="P11" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="Q11" s="12" t="s">
+      <c r="Q11" s="13" t="s">
         <v>592</v>
       </c>
     </row>
@@ -13391,7 +13407,7 @@
       <c r="P13" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="13" t="s">
         <v>594</v>
       </c>
     </row>
@@ -13436,7 +13452,7 @@
       <c r="P16" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="Q16" s="12" t="s">
+      <c r="Q16" s="13" t="s">
         <v>601</v>
       </c>
     </row>
@@ -13451,7 +13467,7 @@
       <c r="P17" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="Q17" s="12" t="s">
+      <c r="Q17" s="13" t="s">
         <v>602</v>
       </c>
     </row>
@@ -13462,7 +13478,7 @@
       <c r="P18" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="Q18" s="12" t="s">
+      <c r="Q18" s="13" t="s">
         <v>604</v>
       </c>
     </row>
@@ -13470,7 +13486,7 @@
       <c r="P19" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="Q19" s="13" t="s">
+      <c r="Q19" s="14" t="s">
         <v>605</v>
       </c>
     </row>
@@ -13560,8 +13576,8 @@
   </sheetPr>
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R17" activeCellId="1" sqref="G5:I5 R17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13662,11 +13678,11 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>606</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16" t="s">
         <v>607</v>
       </c>
       <c r="O3" s="4" t="n">
@@ -13679,20 +13695,20 @@
         <v>608</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="17" t="s">
         <v>610</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="18" t="s">
         <v>268</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="12" t="s">
         <v>612</v>
       </c>
       <c r="O4" s="4" t="n">
@@ -13721,7 +13737,7 @@
       <c r="P5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="Q5" s="13" t="s">
         <v>616</v>
       </c>
     </row>
@@ -13732,7 +13748,7 @@
       <c r="L6" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="19" t="s">
         <v>617</v>
       </c>
       <c r="O6" s="4" t="n">
@@ -13741,7 +13757,7 @@
       <c r="P6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="13" t="s">
         <v>618</v>
       </c>
     </row>
@@ -13752,7 +13768,7 @@
       <c r="P7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="12" t="s">
         <v>619</v>
       </c>
     </row>
@@ -13786,7 +13802,7 @@
       <c r="P9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="Q9" s="13" t="s">
         <v>621</v>
       </c>
     </row>
@@ -13815,7 +13831,7 @@
       <c r="P11" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="12" t="s">
         <v>624</v>
       </c>
     </row>
@@ -13837,7 +13853,7 @@
       <c r="P13" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="13" t="s">
         <v>626</v>
       </c>
     </row>
@@ -13877,7 +13893,7 @@
       <c r="P15" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="Q15" s="12" t="s">
+      <c r="Q15" s="13" t="s">
         <v>633</v>
       </c>
     </row>
@@ -13930,7 +13946,7 @@
       <c r="P18" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="Q18" s="12" t="s">
+      <c r="Q18" s="13" t="s">
         <v>641</v>
       </c>
     </row>
@@ -14015,8 +14031,8 @@
   </sheetPr>
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K24" activeCellId="1" sqref="G5:I5 K24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14113,10 +14129,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="39.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>647</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="20"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4" t="n">
@@ -14125,7 +14141,7 @@
       <c r="P3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="13" t="s">
         <v>648</v>
       </c>
     </row>
@@ -14168,7 +14184,7 @@
       <c r="P6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="13" t="s">
         <v>653</v>
       </c>
     </row>
@@ -14207,12 +14223,12 @@
       <c r="P9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="Q9" s="13" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="9" t="s">
         <v>268</v>
       </c>
       <c r="L10" s="4" t="s">
@@ -14273,7 +14289,7 @@
       <c r="P13" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="13" t="s">
         <v>665</v>
       </c>
     </row>
@@ -14289,7 +14305,7 @@
       <c r="P14" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="Q14" s="12" t="s">
+      <c r="Q14" s="13" t="s">
         <v>667</v>
       </c>
     </row>
@@ -14341,7 +14357,7 @@
       <c r="I17" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="N17" s="20" t="s">
+      <c r="N17" s="21" t="s">
         <v>674</v>
       </c>
       <c r="O17" s="4" t="n">
@@ -14404,7 +14420,7 @@
       <c r="P21" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="Q21" s="12" t="s">
+      <c r="Q21" s="13" t="s">
         <v>681</v>
       </c>
     </row>
@@ -14415,7 +14431,7 @@
       <c r="P22" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="Q22" s="12" t="s">
+      <c r="Q22" s="13" t="s">
         <v>682</v>
       </c>
     </row>
@@ -14449,7 +14465,7 @@
       <c r="P24" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="Q24" s="12" t="s">
+      <c r="Q24" s="13" t="s">
         <v>687</v>
       </c>
     </row>
@@ -14574,7 +14590,7 @@
       <c r="P34" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="Q34" s="12" t="s">
+      <c r="Q34" s="13" t="s">
         <v>700</v>
       </c>
     </row>
@@ -14637,8 +14653,8 @@
   </sheetPr>
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="1" sqref="G5:I5 K10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14722,7 +14738,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>704</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -14785,7 +14801,7 @@
       <c r="P6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="13" t="s">
         <v>709</v>
       </c>
     </row>
@@ -14839,7 +14855,7 @@
       <c r="K10" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="12" t="s">
         <v>714</v>
       </c>
       <c r="N10" s="4" t="s">
@@ -14892,8 +14908,8 @@
   </sheetPr>
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="G5:I5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14981,7 +14997,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>718</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -15005,7 +15021,7 @@
       <c r="P3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="22" t="s">
         <v>720</v>
       </c>
     </row>
@@ -15025,7 +15041,7 @@
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="22" t="s">
         <v>723</v>
       </c>
     </row>
@@ -15193,7 +15209,7 @@
       <c r="P15" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="Q15" s="12" t="s">
         <v>739</v>
       </c>
     </row>
@@ -15208,8 +15224,8 @@
         <v>740</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K17" s="7" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K17" s="9" t="s">
         <v>268</v>
       </c>
       <c r="L17" s="7" t="n">
@@ -15357,8 +15373,8 @@
   </sheetPr>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="1" sqref="G5:I5 R1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15445,7 +15461,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>744</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -15712,8 +15728,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="1" sqref="G5:I5 F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16109,8 +16125,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="1" sqref="G5:I5 R1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16197,7 +16213,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>760</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -16218,7 +16234,7 @@
       <c r="P3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="12" t="s">
         <v>762</v>
       </c>
     </row>
@@ -16229,7 +16245,7 @@
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="12" t="s">
         <v>763</v>
       </c>
     </row>
@@ -16449,8 +16465,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5:I5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16534,7 +16550,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>769</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -16818,8 +16834,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="1" sqref="G5:I5 R1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16907,7 +16923,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>783</v>
       </c>
       <c r="E3" s="7"/>
@@ -16940,7 +16956,7 @@
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="12" t="s">
         <v>785</v>
       </c>
     </row>
@@ -17204,8 +17220,8 @@
   </sheetPr>
   <dimension ref="A2:AA68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C39" activeCellId="1" sqref="G5:I5 C39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17217,47 +17233,47 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>797</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>798</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>799</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="24" t="s">
         <v>800</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7"/>
       <c r="B3" s="4"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="24"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
@@ -17267,7 +17283,7 @@
       <c r="C4" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
@@ -17281,16 +17297,16 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>268</v>
+        <v>803</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17299,55 +17315,55 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="D7" s="24"/>
+        <v>807</v>
+      </c>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>582</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>808</v>
-      </c>
-      <c r="D8" s="24"/>
+        <v>809</v>
+      </c>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>598</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>121</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17355,47 +17371,47 @@
         <v>142</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="D12" s="24"/>
+        <v>815</v>
+      </c>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>201</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>216</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>819</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17404,22 +17420,22 @@
         <v>162</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>180</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17428,10 +17444,10 @@
         <v>104</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17439,282 +17455,282 @@
         <v>19</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>825</v>
-      </c>
-      <c r="D19" s="24"/>
+        <v>826</v>
+      </c>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>826</v>
-      </c>
-      <c r="D20" s="24"/>
+        <v>827</v>
+      </c>
+      <c r="D20" s="25"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>827</v>
-      </c>
-      <c r="D21" s="24"/>
+        <v>828</v>
+      </c>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="24"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="24"/>
+      <c r="D23" s="25"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="24"/>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="24"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="24"/>
+      <c r="D27" s="25"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="24"/>
+      <c r="D28" s="25"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="25" t="s">
-        <v>828</v>
-      </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="25"/>
-      <c r="AA29" s="25"/>
+      <c r="A29" s="26" t="s">
+        <v>829</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>830</v>
-      </c>
-      <c r="D30" s="24"/>
+        <v>831</v>
+      </c>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>832</v>
-      </c>
-      <c r="D31" s="24"/>
+        <v>833</v>
+      </c>
+      <c r="D31" s="25"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>833</v>
-      </c>
-      <c r="D32" s="24"/>
+        <v>834</v>
+      </c>
+      <c r="D32" s="25"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
         <v>609</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>834</v>
-      </c>
-      <c r="D33" s="24"/>
+        <v>835</v>
+      </c>
+      <c r="D33" s="25"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>571</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>574</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="24"/>
+      <c r="D37" s="25"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>842</v>
-      </c>
-      <c r="D39" s="24"/>
+        <v>843</v>
+      </c>
+      <c r="D39" s="25"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>843</v>
-      </c>
-      <c r="D40" s="24"/>
+        <v>844</v>
+      </c>
+      <c r="D40" s="25"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>507</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>844</v>
-      </c>
-      <c r="D41" s="24"/>
+        <v>845</v>
+      </c>
+      <c r="D41" s="25"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="24"/>
+      <c r="D42" s="25"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>846</v>
-      </c>
-      <c r="D43" s="24"/>
+        <v>847</v>
+      </c>
+      <c r="D43" s="25"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>390</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="D44" s="24"/>
+        <v>848</v>
+      </c>
+      <c r="D44" s="25"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>849</v>
-      </c>
-      <c r="D45" s="24"/>
+        <v>850</v>
+      </c>
+      <c r="D45" s="25"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="23" t="s">
-        <v>850</v>
-      </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23"/>
-      <c r="S46" s="23"/>
-      <c r="T46" s="23"/>
-      <c r="U46" s="23"/>
-      <c r="V46" s="23"/>
-      <c r="W46" s="23"/>
-      <c r="X46" s="23"/>
-      <c r="Y46" s="23"/>
-      <c r="Z46" s="23"/>
-      <c r="AA46" s="23"/>
+      <c r="A46" s="24" t="s">
+        <v>851</v>
+      </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="24"/>
+      <c r="V46" s="24"/>
+      <c r="W46" s="24"/>
+      <c r="X46" s="24"/>
+      <c r="Y46" s="24"/>
+      <c r="Z46" s="24"/>
+      <c r="AA46" s="24"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
         <v>673</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D48" s="24"/>
+      <c r="D48" s="25"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
         <v>319</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>853</v>
-      </c>
-      <c r="D49" s="24"/>
+        <v>854</v>
+      </c>
+      <c r="D49" s="25"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7"/>
@@ -17722,52 +17738,52 @@
         <v>22</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>854</v>
-      </c>
-      <c r="D50" s="24"/>
+        <v>855</v>
+      </c>
+      <c r="D50" s="25"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>263</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>855</v>
-      </c>
-      <c r="D51" s="24"/>
+        <v>856</v>
+      </c>
+      <c r="D51" s="25"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>518</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>856</v>
-      </c>
-      <c r="D52" s="24"/>
+        <v>857</v>
+      </c>
+      <c r="D52" s="25"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>857</v>
-      </c>
-      <c r="D53" s="24"/>
+        <v>858</v>
+      </c>
+      <c r="D53" s="25"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
         <v>627</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17775,84 +17791,84 @@
         <v>634</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>860</v>
-      </c>
-      <c r="D55" s="24"/>
+        <v>861</v>
+      </c>
+      <c r="D55" s="25"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
         <v>305</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>861</v>
-      </c>
-      <c r="D56" s="24"/>
+        <v>862</v>
+      </c>
+      <c r="D56" s="25"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
         <v>575</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>862</v>
-      </c>
-      <c r="D57" s="24"/>
+        <v>863</v>
+      </c>
+      <c r="D57" s="25"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
         <v>572</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>863</v>
-      </c>
-      <c r="D58" s="24"/>
+        <v>864</v>
+      </c>
+      <c r="D58" s="25"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
         <v>116</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>864</v>
-      </c>
-      <c r="D59" s="24"/>
+        <v>865</v>
+      </c>
+      <c r="D59" s="25"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D60" s="24"/>
+      <c r="D60" s="25"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>184</v>
+        <v>866</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D62" s="24"/>
+      <c r="D62" s="25"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D63" s="24"/>
+      <c r="D63" s="25"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>867</v>
-      </c>
-      <c r="D64" s="24"/>
+        <v>869</v>
+      </c>
+      <c r="D64" s="25"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="D65" s="24"/>
+        <v>870</v>
+      </c>
+      <c r="D65" s="25"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
   </sheetData>
@@ -17878,8 +17894,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="1" sqref="G5:I5 K4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18210,8 +18226,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="G5:I5 F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18567,8 +18583,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="1" sqref="G5:I5 H4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18916,8 +18932,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L7" activeCellId="1" sqref="G5:I5 L7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19247,8 +19263,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="1" sqref="G5:I5 K8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/v2/AIID_Technical_Taxonomies_v2.xlsx
+++ b/v2/AIID_Technical_Taxonomies_v2.xlsx
@@ -10,47 +10,46 @@
   <sheets>
     <sheet name="Incident 146 breakdown" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Incident 31 breakdown" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Incident TEMPLATE breakdown" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Incident 179 breakdown" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Incident 240 breakdown" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Incident 141 breakdown" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Incident 125 breakdown" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Incident 171 breakdown" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Incident 287 breakdown" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Incident 46 breakdown" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Incident 133 breakdown" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Incident 34 breakdown" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Incident 13 breakdown" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Incident 27 breakdown" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Incident 16 breakdown" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Incident 111 breakdown" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="Incident 36 breakdown" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="Incident 167 breakdown" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="Incident 68 breakdown" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="Incident 74 breakdown" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="Incident 252 breakdown" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="Incident 253 breakdown" sheetId="22" state="visible" r:id="rId23"/>
-    <sheet name="Incident 254 breakdown" sheetId="23" state="visible" r:id="rId24"/>
-    <sheet name="Incident 28 breakdown" sheetId="24" state="visible" r:id="rId25"/>
-    <sheet name="Incident 103 breakdown" sheetId="25" state="visible" r:id="rId26"/>
-    <sheet name="Incident 106 breakdown" sheetId="26" state="visible" r:id="rId27"/>
-    <sheet name="Incident 262 breakdown" sheetId="27" state="visible" r:id="rId28"/>
-    <sheet name="Incident 151 breakdown" sheetId="28" state="visible" r:id="rId29"/>
-    <sheet name="Incident 154 breakdown" sheetId="29" state="visible" r:id="rId30"/>
-    <sheet name="Incident 192 breakdown" sheetId="30" state="visible" r:id="rId31"/>
-    <sheet name="Incident 39 breakdown" sheetId="31" state="visible" r:id="rId32"/>
-    <sheet name="Incident 21 breakdown" sheetId="32" state="visible" r:id="rId33"/>
-    <sheet name="Incident 137 breakdown" sheetId="33" state="visible" r:id="rId34"/>
-    <sheet name="Incident 1 Breakdown" sheetId="34" state="visible" r:id="rId35"/>
-    <sheet name="Incident 72 Breakdown" sheetId="35" state="visible" r:id="rId36"/>
-    <sheet name="Incident 112 Breakdown" sheetId="36" state="visible" r:id="rId37"/>
-    <sheet name="Incident 241 Breakdown" sheetId="37" state="visible" r:id="rId38"/>
-    <sheet name="Incident 149 breakdown" sheetId="38" state="visible" r:id="rId39"/>
-    <sheet name="Incident 10 breakdown" sheetId="39" state="visible" r:id="rId40"/>
-    <sheet name="Incident 144 breakdown" sheetId="40" state="visible" r:id="rId41"/>
-    <sheet name="Incident 259 breakdown" sheetId="41" state="visible" r:id="rId42"/>
-    <sheet name="Incident 221 breakdown" sheetId="42" state="visible" r:id="rId43"/>
-    <sheet name="Definitions" sheetId="43" state="visible" r:id="rId44"/>
+    <sheet name="Incident 179 breakdown" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Incident 240 breakdown" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Incident 141 breakdown" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Incident 125 breakdown" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Incident 171 breakdown" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Incident 287 breakdown" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Incident 46 breakdown" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Incident 133 breakdown" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Incident 34 breakdown" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Incident 13 breakdown" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Incident 27 breakdown" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Incident 16 breakdown" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Incident 111 breakdown" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="Incident 36 breakdown" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Incident 167 breakdown" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="Incident 68 breakdown" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="Incident 74 breakdown" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="Incident 252 breakdown" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="Incident 253 breakdown" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="Incident 254 breakdown" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="Incident 28 breakdown" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="Incident 103 breakdown" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="Incident 106 breakdown" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="Incident 262 breakdown" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="Incident 151 breakdown" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="Incident 154 breakdown" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="Incident 192 breakdown" sheetId="29" state="visible" r:id="rId30"/>
+    <sheet name="Incident 39 breakdown" sheetId="30" state="visible" r:id="rId31"/>
+    <sheet name="Incident 21 breakdown" sheetId="31" state="visible" r:id="rId32"/>
+    <sheet name="Incident 137 breakdown" sheetId="32" state="visible" r:id="rId33"/>
+    <sheet name="Incident 1 Breakdown" sheetId="33" state="visible" r:id="rId34"/>
+    <sheet name="Incident 72 Breakdown" sheetId="34" state="visible" r:id="rId35"/>
+    <sheet name="Incident 112 Breakdown" sheetId="35" state="visible" r:id="rId36"/>
+    <sheet name="Incident 241 Breakdown" sheetId="36" state="visible" r:id="rId37"/>
+    <sheet name="Incident 149 breakdown" sheetId="37" state="visible" r:id="rId38"/>
+    <sheet name="Incident 10 breakdown" sheetId="38" state="visible" r:id="rId39"/>
+    <sheet name="Incident 144 breakdown" sheetId="39" state="visible" r:id="rId40"/>
+    <sheet name="Incident 259 breakdown" sheetId="40" state="visible" r:id="rId41"/>
+    <sheet name="Incident 221 breakdown" sheetId="41" state="visible" r:id="rId42"/>
+    <sheet name="Definitions" sheetId="42" state="visible" r:id="rId43"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -62,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="872">
   <si>
     <t xml:space="preserve">AI Tasks</t>
   </si>
@@ -3202,7 +3201,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3587,10 +3586,13 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="28.9"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -3672,20 +3674,23 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="M3" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="O3" s="5" t="n">
         <v>1</v>
       </c>
@@ -3693,28 +3698,10 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="I4" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>2</v>
-      </c>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O4" s="5" t="n">
         <v>1</v>
       </c>
@@ -3722,19 +3709,19 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K5" s="5" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="L5" s="5" t="n">
         <v>3</v>
       </c>
+      <c r="M5" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="O5" s="5" t="n">
         <v>1</v>
       </c>
@@ -3742,63 +3729,78 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J6" s="5" t="s">
-        <v>162</v>
+      <c r="K6" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="L6" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>163</v>
+      <c r="N6" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="O6" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K7" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>166</v>
+        <v>121</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K8" s="5" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>165</v>
+        <v>181</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
+      <c r="Q8" s="5" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K9" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="P9" s="7" t="n">
         <v>7</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3928,7 +3930,7 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" location="r811" display="https://incidentdatabase.ai/cite/46#r811"/>
+    <hyperlink ref="A3" r:id="rId1" location="r1468" display="https://incidentdatabase.ai/cite/133#r1468"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3953,7 +3955,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="28.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="21.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4036,23 +4038,20 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>170</v>
+      <c r="G3" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="O3" s="5" t="n">
         <v>1</v>
       </c>
@@ -4060,119 +4059,161 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="O4" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="5" t="s">
-        <v>173</v>
+      <c r="Q4" s="8" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>174</v>
+      <c r="G5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>9</v>
       </c>
       <c r="O5" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K6" s="5" t="s">
-        <v>117</v>
+      <c r="J6" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
       <c r="O6" s="5" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K7" s="5" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="L7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="N7" s="5" t="s">
-        <v>178</v>
+      <c r="M7" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K8" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>182</v>
+        <v>195</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>15</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K9" s="5" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>181</v>
+        <v>197</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="n">
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>19</v>
+      </c>
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
+      <c r="Q10" s="5" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K11" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>27</v>
+      </c>
       <c r="P11" s="7" t="n">
         <v>9</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4292,7 +4333,7 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" location="r1468" display="https://incidentdatabase.ai/cite/133#r1468"/>
+    <hyperlink ref="A3" r:id="rId1" location="r5d34b8c29ced494f010ed660" display="https://incidentdatabase.ai/cite/34#r5d34b8c29ced494f010ed660"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4312,409 +4353,6 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="21.1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="I3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="O4" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="P4" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="O5" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="O6" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="P6" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="O7" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="P7" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K8" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="O8" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="P8" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="O9" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="P9" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K10" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O10" s="5" t="n">
-        <v>19</v>
-      </c>
-      <c r="P10" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K11" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="O11" s="5" t="n">
-        <v>27</v>
-      </c>
-      <c r="P11" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P12" s="7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P13" s="7" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P14" s="7" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P15" s="7" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P16" s="7" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P17" s="7" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P18" s="7" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P19" s="7" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P20" s="7" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P21" s="7" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P22" s="7" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P23" s="7" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P24" s="7" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P25" s="7" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P26" s="7" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P27" s="7" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P28" s="7" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P29" s="7" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P30" s="7" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P31" s="7" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P32" s="7" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P33" s="7" t="n">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" location="r5d34b8c29ced494f010ed660" display="https://incidentdatabase.ai/cite/34#r5d34b8c29ced494f010ed660"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:R33"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -5185,7 +4823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5540,7 +5178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5898,7 +5536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6334,7 +5972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6689,7 +6327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -7077,7 +6715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -7400,6 +7038,399 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" location="r5d34b8c29ced494f010ed92c" display="https://incidentdatabase.ai/cite/68#r5d34b8c29ced494f010ed92c"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:R33"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K8" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O9" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="O10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K11" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O12" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P12" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O13" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="P13" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P14" s="7" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P15" s="7" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P16" s="7" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P17" s="7" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P18" s="7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P19" s="7" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P20" s="7" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P21" s="7" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P22" s="7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P23" s="7" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P24" s="7" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P25" s="7" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P26" s="7" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P27" s="7" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P28" s="7" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P29" s="7" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P30" s="7" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P31" s="7" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P32" s="7" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P33" s="7" t="n">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" location="r1543" display="https://incidentdatabase.ai/cite/74#r1543"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -7725,7 +7756,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7810,16 +7841,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>281</v>
+        <v>337</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>261</v>
+      <c r="H3" s="5" t="s">
+        <v>338</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>1</v>
@@ -7831,164 +7862,90 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="R3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H4" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5" t="n">
-        <v>1</v>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>364</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="O5" s="5" t="n">
-        <v>1</v>
+      <c r="Q4" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>366</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O6" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K7" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O7" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K8" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="O8" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O9" s="5" t="n">
-        <v>2</v>
-      </c>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P9" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="Q9" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="O10" s="5" t="n">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="Q10" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K11" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="O11" s="5" t="n">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P11" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="Q11" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O12" s="5" t="n">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P12" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="Q12" s="5" t="s">
-        <v>360</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O13" s="5" t="n">
-        <v>6</v>
-      </c>
       <c r="P13" s="7" t="n">
         <v>11</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8098,7 +8055,7 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" location="r1543" display="https://incidentdatabase.ai/cite/74#r1543"/>
+    <hyperlink ref="A3" r:id="rId1" display="https://incidentdatabase.ai/cite/252"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8118,7 +8075,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8203,10 +8160,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>337</v>
+        <v>41</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
@@ -8218,86 +8175,131 @@
         <v>1</v>
       </c>
       <c r="O3" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K4" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>364</v>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" s="8" t="s">
-        <v>365</v>
+      <c r="Q4" s="5" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K5" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>366</v>
+      <c r="O5" s="5" t="n">
+        <v>3</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O6" s="5" t="n">
+        <v>3</v>
+      </c>
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O7" s="5" t="n">
+        <v>3</v>
+      </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K8" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>3</v>
+      </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>3</v>
+      </c>
       <c r="P9" s="7" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q9" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K10" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>384</v>
+      </c>
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
+      <c r="Q10" s="5" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N11" s="5" t="s">
+        <v>386</v>
+      </c>
       <c r="P11" s="7" t="n">
         <v>9</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8417,7 +8419,7 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://incidentdatabase.ai/cite/252"/>
+    <hyperlink ref="A3" r:id="rId1" display="https://incidentdatabase.ai/cite/253"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8437,7 +8439,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8522,146 +8524,83 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>41</v>
+        <v>389</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>338</v>
+        <v>390</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="O3" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H4" s="5" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1</v>
-      </c>
-      <c r="O4" s="5" t="n">
-        <v>2</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O5" s="5" t="n">
-        <v>3</v>
+      <c r="K5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" s="5" t="s">
-        <v>374</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O6" s="5" t="n">
-        <v>3</v>
-      </c>
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="5" t="s">
-        <v>375</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O7" s="5" t="n">
-        <v>3</v>
-      </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" s="5" t="s">
-        <v>376</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="O8" s="5" t="n">
-        <v>3</v>
-      </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="Q8" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="O9" s="5" t="n">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P9" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="Q9" s="5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K10" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>384</v>
-      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="Q10" s="5" t="s">
-        <v>385</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N11" s="5" t="s">
-        <v>386</v>
-      </c>
       <c r="P11" s="7" t="n">
         <v>9</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8781,7 +8720,7 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://incidentdatabase.ai/cite/253"/>
+    <hyperlink ref="A3" r:id="rId1" display="https://incidentdatabase.ai/cite/254"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8801,10 +8740,13 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="5" width="51.79"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -8886,19 +8828,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="I3" s="5" t="n">
-        <v>1</v>
+        <v>394</v>
       </c>
       <c r="O3" s="5" t="n">
         <v>1</v>
@@ -8907,92 +8840,189 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>391</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="R3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H4" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="I4" s="5" t="n">
+      <c r="O4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="5" t="n">
+      <c r="N5" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="O5" s="5" t="n">
         <v>2</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3</v>
       </c>
+      <c r="Q5" s="5" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O6" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
+      <c r="Q6" s="5" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O7" s="5" t="n">
+        <v>4</v>
+      </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
+      <c r="Q7" s="5" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O8" s="5" t="n">
+        <v>4</v>
+      </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
+      <c r="Q8" s="5" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O9" s="5" t="n">
+        <v>4</v>
+      </c>
       <c r="P9" s="7" t="n">
         <v>7</v>
       </c>
+      <c r="Q9" s="5" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O10" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
+      <c r="Q10" s="5" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="P11" s="7" t="n">
         <v>9</v>
       </c>
+      <c r="Q11" s="5" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O12" s="5" t="n">
+        <v>7</v>
+      </c>
       <c r="P12" s="7" t="n">
         <v>10</v>
       </c>
+      <c r="Q12" s="5" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>7</v>
+      </c>
       <c r="P13" s="7" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q13" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O14" s="5" t="n">
+        <v>8</v>
+      </c>
       <c r="P14" s="7" t="n">
         <v>12</v>
       </c>
+      <c r="Q14" s="8" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O15" s="5" t="n">
+        <v>8</v>
+      </c>
       <c r="P15" s="7" t="n">
         <v>13</v>
       </c>
+      <c r="Q15" s="5" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O16" s="5" t="n">
+        <v>8</v>
+      </c>
       <c r="P16" s="7" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q16" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O17" s="5" t="n">
+        <v>22</v>
+      </c>
       <c r="P17" s="7" t="n">
         <v>15</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9030,7 +9060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P25" s="7" t="n">
         <v>23</v>
       </c>
@@ -9082,7 +9112,7 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://incidentdatabase.ai/cite/254"/>
+    <hyperlink ref="A3" r:id="rId1" location="r5d34b8c29ced494f010ed5e2" display="https://incidentdatabase.ai/cite/28#r5d34b8c29ced494f010ed5e2"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -9102,13 +9132,10 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="5" width="51.79"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="1" t="s">
@@ -9190,10 +9217,25 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>394</v>
+        <v>415</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>417</v>
       </c>
       <c r="O3" s="5" t="n">
         <v>1</v>
@@ -9202,11 +9244,19 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="R3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K4" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>420</v>
+      </c>
       <c r="O4" s="5" t="n">
         <v>1</v>
       </c>
@@ -9214,177 +9264,132 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N5" s="5" t="s">
-        <v>397</v>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J5" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>422</v>
       </c>
       <c r="O5" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O6" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q6" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O7" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O8" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O9" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P9" s="7" t="n">
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O10" s="5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H11" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>404</v>
-      </c>
       <c r="O11" s="5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P11" s="7" t="n">
         <v>9</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O12" s="5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P12" s="7" t="n">
         <v>10</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K13" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>408</v>
-      </c>
       <c r="O13" s="5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P13" s="7" t="n">
         <v>11</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O14" s="5" t="n">
-        <v>8</v>
-      </c>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P14" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="Q14" s="8" t="s">
-        <v>410</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O15" s="5" t="n">
-        <v>8</v>
-      </c>
       <c r="P15" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="Q15" s="5" t="s">
-        <v>411</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O16" s="5" t="n">
-        <v>8</v>
-      </c>
       <c r="P16" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="Q16" s="5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O17" s="5" t="n">
-        <v>22</v>
-      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P17" s="7" t="n">
         <v>15</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9422,7 +9427,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P25" s="7" t="n">
         <v>23</v>
       </c>
@@ -9474,7 +9479,7 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" location="r5d34b8c29ced494f010ed5e2" display="https://incidentdatabase.ai/cite/28#r5d34b8c29ced494f010ed5e2"/>
+    <hyperlink ref="A3" r:id="rId1" display="https://incidentdatabase.ai/cite/103"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -9494,7 +9499,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
+      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9577,48 +9582,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>417</v>
-      </c>
       <c r="O3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="5" t="s">
-        <v>418</v>
+      <c r="Q3" s="8" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K4" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>420</v>
-      </c>
       <c r="O4" s="5" t="n">
         <v>1</v>
       </c>
@@ -9626,15 +9610,15 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J5" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>422</v>
+      <c r="G5" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>3</v>
       </c>
       <c r="O5" s="5" t="n">
         <v>1</v>
@@ -9643,21 +9627,27 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="8" t="s">
-        <v>424</v>
+      <c r="Q6" s="5" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>439</v>
+      </c>
       <c r="O7" s="5" t="n">
         <v>1</v>
       </c>
@@ -9665,10 +9655,22 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>442</v>
+      </c>
       <c r="O8" s="5" t="n">
         <v>1</v>
       </c>
@@ -9676,92 +9678,155 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O9" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" s="7" t="n">
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O10" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O11" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P11" s="7" t="n">
         <v>9</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O12" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P12" s="7" t="n">
         <v>10</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>448</v>
+      </c>
       <c r="O13" s="5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P13" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="Q13" s="5" t="s">
-        <v>431</v>
+      <c r="Q13" s="8" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J14" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>9</v>
+      </c>
       <c r="P14" s="7" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q14" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>9</v>
+      </c>
       <c r="P15" s="7" t="n">
         <v>13</v>
       </c>
+      <c r="Q15" s="5" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O16" s="5" t="n">
+        <v>10</v>
+      </c>
       <c r="P16" s="7" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q16" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O17" s="5" t="n">
+        <v>10</v>
+      </c>
       <c r="P17" s="7" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q17" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J18" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>11</v>
+      </c>
       <c r="P18" s="7" t="n">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q18" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L19" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>11</v>
+      </c>
       <c r="P19" s="7" t="n">
         <v>17</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9841,7 +9906,7 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://incidentdatabase.ai/cite/103"/>
+    <hyperlink ref="A3" r:id="rId1" location="r1420" display="https://incidentdatabase.ai/cite/106#r1420"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -9861,433 +9926,6 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G5" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="I5" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="O5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J7" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="O7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="O8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O9" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O10" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P10" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O11" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P11" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O12" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P12" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="O13" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="P13" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J14" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="O14" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="P14" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="O15" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="P15" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O16" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P16" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O17" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P17" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J18" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="O18" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="P18" s="7" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L19" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="O19" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P20" s="7" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P21" s="7" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P22" s="7" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P23" s="7" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P24" s="7" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P25" s="7" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P26" s="7" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P27" s="7" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P28" s="7" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P29" s="7" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P30" s="7" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P31" s="7" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P32" s="7" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P33" s="7" t="n">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" location="r1420" display="https://incidentdatabase.ai/cite/106#r1420"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:R33"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -10713,7 +10351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -11035,7 +10673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -11384,269 +11022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:R33"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P3" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P4" s="7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P5" s="7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P6" s="7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P7" s="7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P8" s="7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P9" s="7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P10" s="7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P11" s="7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P12" s="7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P13" s="7" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P14" s="7" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P15" s="7" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P16" s="7" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P17" s="7" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P18" s="7" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P19" s="7" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P20" s="7" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P21" s="7" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P22" s="7" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P23" s="7" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P24" s="7" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P25" s="7" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P26" s="7" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P27" s="7" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P28" s="7" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P29" s="7" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P30" s="7" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P31" s="7" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P32" s="7" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P33" s="7" t="n">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -12015,7 +11391,404 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:R33"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O14" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O15" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P15" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P16" s="7" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P17" s="7" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P18" s="7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P19" s="7" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P20" s="7" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P21" s="7" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P22" s="7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P23" s="7" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P24" s="7" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P25" s="7" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P26" s="7" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P27" s="7" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P28" s="7" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P29" s="7" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P30" s="7" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P31" s="7" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P32" s="7" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P33" s="7" t="n">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" location="r1874" display="https://incidentdatabase.ai/cite/179#r1874"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -12427,7 +12200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -12773,7 +12546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -13132,7 +12905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -13569,7 +13342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -14024,7 +13797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -14646,7 +14419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -14901,7 +14674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -15366,7 +15139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -15721,6 +15494,346 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:R33"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="5" width="30.51"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="O3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P11" s="7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P12" s="7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P13" s="7" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P14" s="7" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P15" s="7" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P16" s="7" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P17" s="7" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P18" s="7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P19" s="7" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P20" s="7" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P21" s="7" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P22" s="7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P23" s="7" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P24" s="7" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P25" s="7" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P26" s="7" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P27" s="7" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P28" s="7" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P29" s="7" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P30" s="7" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P31" s="7" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P32" s="7" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P33" s="7" t="n">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" location="r1483" display="https://incidentdatabase.ai/cite/144#r1483"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -15729,7 +15842,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15814,10 +15927,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
@@ -15826,7 +15939,16 @@
         <v>22</v>
       </c>
       <c r="I3" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="O3" s="5" t="n">
         <v>1</v>
@@ -15835,21 +15957,16 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G4" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="O4" s="5" t="n">
         <v>1</v>
@@ -15858,155 +15975,86 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>53</v>
-      </c>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O5" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>3</v>
-      </c>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O6" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>11</v>
-      </c>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O7" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8" s="5" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O8" s="5" t="n">
         <v>3</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O8" s="5" t="n">
-        <v>1</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O9" s="5" t="n">
-        <v>1</v>
-      </c>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P9" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="Q9" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O10" s="5" t="n">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="Q10" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O11" s="5" t="n">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P11" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="Q11" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O12" s="5" t="n">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P12" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="Q12" s="8" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O13" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="P13" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="Q13" s="5" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O14" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="P14" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="Q14" s="5" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O15" s="5" t="n">
-        <v>3</v>
-      </c>
       <c r="P15" s="7" t="n">
         <v>13</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16106,7 +16154,7 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" location="r1874" display="https://incidentdatabase.ai/cite/179#r1874"/>
+    <hyperlink ref="A3" r:id="rId1" location="r1768" display="https://incidentdatabase.ai/cite/240#r1768"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -16126,346 +16174,6 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="5" width="30.51"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>760</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>761</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="O3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="O9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P11" s="7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P12" s="7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P13" s="7" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P14" s="7" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P15" s="7" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P16" s="7" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P17" s="7" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P18" s="7" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P19" s="7" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P20" s="7" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P21" s="7" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P22" s="7" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P23" s="7" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P24" s="7" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P25" s="7" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P26" s="7" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P27" s="7" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P28" s="7" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P29" s="7" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P30" s="7" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P31" s="7" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P32" s="7" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P33" s="7" t="n">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" location="r1483" display="https://incidentdatabase.ai/cite/144#r1483"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:R33"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -16827,7 +16535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -17213,7 +16921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -17895,7 +17603,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17980,29 +17688,24 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>70</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D3" s="5"/>
       <c r="F3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>22</v>
+      <c r="H3" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="O3" s="5" t="n">
         <v>1</v>
       </c>
@@ -18010,16 +17713,31 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="R3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G4" s="5" t="s">
-        <v>26</v>
+      <c r="D4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="O4" s="5" t="n">
         <v>1</v>
@@ -18028,10 +17746,16 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="O5" s="5" t="n">
         <v>2</v>
       </c>
@@ -18039,10 +17763,16 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>6</v>
+      </c>
       <c r="O6" s="5" t="n">
         <v>2</v>
       </c>
@@ -18050,29 +17780,32 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N7" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="O7" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O8" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18207,7 +17940,7 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" location="r1768" display="https://incidentdatabase.ai/cite/240#r1768"/>
+    <hyperlink ref="A3" r:id="rId1" location="r1479" display="https://incidentdatabase.ai/cite/141#r1479"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -18227,7 +17960,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18312,23 +18045,28 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" s="5" t="n">
-        <v>2</v>
+      <c r="K3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="O3" s="5" t="n">
         <v>1</v>
@@ -18337,31 +18075,21 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="R3" s="5"/>
+        <v>101</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>86</v>
+        <v>102</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="O4" s="5" t="n">
         <v>1</v>
@@ -18370,71 +18098,68 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>88</v>
+      <c r="D5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>7</v>
       </c>
       <c r="O5" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>6</v>
-      </c>
       <c r="O6" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N7" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="O7" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O8" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O9" s="5" t="n">
+        <v>3</v>
+      </c>
       <c r="P9" s="7" t="n">
         <v>7</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18564,7 +18289,7 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" location="r1479" display="https://incidentdatabase.ai/cite/141#r1479"/>
+    <hyperlink ref="A3" r:id="rId1" location="r1460" display="https://incidentdatabase.ai/cite/125#r1460"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -18584,7 +18309,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18669,28 +18394,25 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>97</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="O3" s="5" t="n">
         <v>1</v>
@@ -18699,21 +18421,24 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>104</v>
+      <c r="G4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>99</v>
+        <v>118</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="O4" s="5" t="n">
         <v>1</v>
@@ -18722,68 +18447,50 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="O5" s="5" t="n">
-        <v>1</v>
+      <c r="K5" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O6" s="5" t="n">
-        <v>1</v>
+      <c r="K6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="5" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O7" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" s="5" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O8" s="5" t="n">
-        <v>3</v>
-      </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="Q8" s="5" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O9" s="5" t="n">
-        <v>3</v>
-      </c>
       <c r="P9" s="7" t="n">
         <v>7</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18913,7 +18620,7 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" location="r1460" display="https://incidentdatabase.ai/cite/125#r1460"/>
+    <hyperlink ref="A3" r:id="rId1" location="r1549" display="https://incidentdatabase.ai/cite/171#r1549"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -18933,7 +18640,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19018,26 +18725,20 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="O3" s="5" t="n">
         <v>1</v>
       </c>
@@ -19045,24 +18746,15 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G4" s="5" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="O4" s="5" t="n">
         <v>1</v>
@@ -19071,80 +18763,191 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" s="5" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>122</v>
+        <v>129</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K6" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>118</v>
+        <v>132</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q6" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J7" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
+      <c r="Q7" s="5" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
+      <c r="Q8" s="5" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="P9" s="7" t="n">
         <v>7</v>
       </c>
+      <c r="Q9" s="5" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
+      <c r="Q10" s="5" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O11" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="P11" s="7" t="n">
         <v>9</v>
       </c>
+      <c r="Q11" s="5" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O12" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="P12" s="7" t="n">
         <v>10</v>
       </c>
+      <c r="Q12" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K13" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="P13" s="7" t="n">
         <v>11</v>
       </c>
+      <c r="Q13" s="5" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O14" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="P14" s="7" t="n">
         <v>12</v>
       </c>
+      <c r="Q14" s="5" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O15" s="5" t="n">
+        <v>3</v>
+      </c>
       <c r="P15" s="7" t="n">
         <v>13</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19244,7 +19047,7 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" location="r1549" display="https://incidentdatabase.ai/cite/171#r1549"/>
+    <hyperlink ref="A3" r:id="rId1" location="r1892" display="https://incidentdatabase.ai/cite/287#r1892"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -19264,7 +19067,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19349,16 +19152,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>22</v>
+      <c r="H3" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>1</v>
@@ -19370,15 +19173,27 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="G4" s="5" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="O4" s="5" t="n">
         <v>1</v>
@@ -19387,27 +19202,18 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>127</v>
+        <v>158</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="K5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>130</v>
+        <v>160</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>3</v>
       </c>
       <c r="O5" s="5" t="n">
         <v>1</v>
@@ -19416,162 +19222,93 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K6" s="5" t="s">
-        <v>132</v>
+      <c r="J6" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="L6" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="O6" s="5" t="n">
         <v>3</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="O6" s="5" t="n">
-        <v>1</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J7" s="5" t="s">
-        <v>135</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K7" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>136</v>
+        <v>165</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="O8" s="5" t="n">
-        <v>1</v>
+        <v>124</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="Q8" s="5" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="O9" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="P9" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="Q9" s="5" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K10" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="O10" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="P10" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="Q10" s="5" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O11" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="P11" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="Q11" s="5" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O12" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="P12" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="Q12" s="5" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K13" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="O13" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="P13" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="Q13" s="5" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O14" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="P14" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="Q14" s="5" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O15" s="5" t="n">
-        <v>3</v>
-      </c>
       <c r="P15" s="7" t="n">
         <v>13</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19671,7 +19408,7 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" location="r1892" display="https://incidentdatabase.ai/cite/287#r1892"/>
+    <hyperlink ref="A3" r:id="rId1" location="r811" display="https://incidentdatabase.ai/cite/46#r811"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
